--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6315F1-5F8A-4B5C-B09A-8DFFA3D081E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C22655-35AF-4328-B209-3F1655F577F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -459,356 +459,343 @@
     <t>0#和三人探险小队前往无尽城探索#1##大沙漠:285,7337:0</t>
   </si>
   <si>
-    <t>0#Encuentra a Jalal#1##沙盒双月山谷:1804,-973:250|长睚</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Maram#1##沙盒双月山谷:1792,-5241:250|双月山谷曼玡</t>
-  </si>
-  <si>
-    <t>4#Escoge 3 rosas y dáselas a Tahir#3#玫瑰花#</t>
-  </si>
-  <si>
-    <t>4#Recuperar 5 trozos de barro de aguas termales#5#温泉の泥#</t>
-  </si>
-  <si>
-    <t>4#Recupera 2 plumas para Koray#2#羽毛#</t>
-  </si>
-  <si>
-    <t>4#Recupera una Concha con Patrón para Amar#1#花纹贝壳#沙盒双月山谷:-2017,-268:100|LUGAR:浅溪镇
-4#Recupera una Concha de Tres Puntos para Amar#1#三褶贝壳#沙盒双月山谷:-2017,-268:100|LUGAR:浅溪镇</t>
-  </si>
-  <si>
-    <t>4#Recupera Exquisita Carne de Res para Rajif#1#精致牛肉#
-4#Recupera Exquisito Pollo para Rajif#1#精致鸡肉#
-4#Recupera Exquisito Cordero para Rajif#1#精致羊肉#</t>
-  </si>
-  <si>
-    <t>4#Recoge 3 Champiñones Dorados para Dariush#3#金针菇#
-4#Recoge 3 Boletus para Darius#3#牛肝菌#
-4#Recoge 3 Champiñones Tashashu para Dariush#3#茶树菇#
-4#Recoge 3 Stinkhorns para Dariush#3#竹荪#</t>
-  </si>
-  <si>
-    <t>3#Derrota 3 manadas de centauros#3#人马战士#</t>
-  </si>
-  <si>
-    <t>3#Derrota 20 Bahar#20#骨刺鱼人#</t>
-  </si>
-  <si>
-    <t>3#Derrota a 5 aprendices de Windblade#5#风刃学徒#</t>
-  </si>
-  <si>
-    <t>3#Derrota a 3 Garuda#3#鹰身人#</t>
-  </si>
-  <si>
-    <t>3#Derrota a 10 Trabajadores de Ifrit#10#火魔苦工#
-3#Derrota a 10 Esclavos de Ifrit#10#火魔奴隶#</t>
-  </si>
-  <si>
-    <t>0#Derrota a Arnab#1|爱美之心兔犬</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Sara#1</t>
-  </si>
-  <si>
-    <t>4#Recupera el Buey Asado Ifrit para Maimun#1#魔焰火烧牛肉#</t>
-  </si>
-  <si>
-    <t>0#Encontrar a Latif#1</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Seyah#1##大沙漠:-1063,-4597:250|大沙漠莎莉雅</t>
-  </si>
-  <si>
-    <t>4#Recoger 3 Orquídeas West Docana#3#西多喀那兰#</t>
-  </si>
-  <si>
-    <t>0#Lleva a Threnody de vuelta a Limestone Village#1##大雪山:11590,2834:0|trigger:青石村村子门口</t>
-  </si>
-  <si>
-    <t>0#Ir a las Montañas Karakorum#1##大雪山:8405,17175:0|trigger:阿拉尔山传送</t>
-  </si>
-  <si>
-    <t>0#Deja las Montañas Karakorum#1. Traducción:</t>
-  </si>
-  <si>
-    <t>0#Encuentra Threnody#1</t>
-  </si>
-  <si>
-    <t>0#Cabaña del cazador#1</t>
-  </si>
-  <si>
-    <t>0#Despídete del Técnico#1</t>
-  </si>
-  <si>
-    <t>0#Investigar las ruinas en el desierto#1##大沙漠:638,7259:250</t>
-  </si>
-  <si>
-    <t>0#Encuentra al mendigo#1##大沙漠:4267,4329:0|大沙漠乞丐</t>
-  </si>
-  <si>
-    <t>4#Dale un pastel de rosas al mendigo#1#玫瑰花饼#</t>
-  </si>
-  <si>
-    <t>Vuelve a las ruinas en el desierto y encuentra a Tasha</t>
-  </si>
-  <si>
-    <t>0#Explora la Ciudad Infinita#1##大沙漠:285,7337:0</t>
-  </si>
-  <si>
-    <t>Jabbar espera que puedas ayudar a encontrar a Jalal y entregarle una carta</t>
-  </si>
-  <si>
-    <t>Mountain Wolf espera que puedas encontrar a Maram en el Valle de Twinluna y entregarle una carta</t>
-  </si>
-  <si>
-    <t>La hija de Qasim, Rusen, está en el pueblo de Fleur. Ayuda a entregar la carta de Qasim a ella</t>
-  </si>
-  <si>
-    <t>Tahir te pide que encuentres 3 rosas para él. La leyenda cuenta que estas plantas solo florecen en algún lugar en el vasto desierto</t>
-  </si>
-  <si>
-    <t>Un borracho de Dunestorm te pide que lo ayudes a encontrar 5 barriles de licor para él</t>
-  </si>
-  <si>
-    <t>Golriz te pide que encuentres tres muestras de barro de aguas termales para ella</t>
-  </si>
-  <si>
-    <t>Koray te pide que encuentres dos muestras de plumas para ella. Qebui Keep en las Montañas Zagros debería tener algunas a la venta</t>
-  </si>
-  <si>
-    <t>Amar está buscando una Concha Estampada y una Concha de Tres Puntas. El pueblo de Agadir en el Valle de Twinluna debería tener algunas a la venta</t>
-  </si>
-  <si>
-    <t>Rajif está preparando el banquete perfecto y está buscando una pieza de Exquisita Carne de res, una pieza de Exquisito Cordero y una pieza de Exquisito Pollo</t>
-  </si>
-  <si>
-    <t>Dariush está preparando el banquete perfecto y está buscando una pieza de cada uno de los siguientes hongos: Champiñón Dorado, Boletus, Faloide y Tashashu</t>
-  </si>
-  <si>
-    <t>La Garza de Nieve espera que puedas enfrentarte a 3 manadas de Lobos Árticos</t>
-  </si>
-  <si>
-    <t>Yaseen espera que puedas repeler 3 manadas de centauros</t>
-  </si>
-  <si>
-    <t>Ormazd espera que puedas repeler 3 escuadrones de Bahar</t>
-  </si>
-  <si>
-    <t>Kourosh espera que puedas enfrentarte a 3 escuadrones de Aprendices de Cuchilla de Viento</t>
-  </si>
-  <si>
-    <t>El espadachín Nasir espera que puedas repeler a 3 Garuda</t>
-  </si>
-  <si>
-    <t>Amir espera que puedas enfrentarte a 3 escuadrones de trabajadores Ifrit</t>
-  </si>
-  <si>
-    <t>Sara, del pueblo de Fleur, espera que puedas derrotar a los Arnab que infestan los campos al norte del puesto avanzado</t>
-  </si>
-  <si>
-    <t>Informa a Sara que Arnab se ha ido</t>
-  </si>
-  <si>
-    <t>Latif espera que puedas investigar el campamento de los Grunts</t>
-  </si>
-  <si>
-    <t>Encuentra a Maimun un trozo de carne de Ifrit sellada. Prueba en las tiendas Fleur y Mireton o Diresprings</t>
-  </si>
-  <si>
-    <t>Vuelve con Latif y dile que los Grunts se han ido</t>
-  </si>
-  <si>
-    <t>Tanar te pide que encuentres a Seyah, su hermana desaparecida, en el Bazar de la Campana del Camello</t>
-  </si>
-  <si>
-    <t>Un boticario te pide que encuentres 3 Orquídeas de West Docana para ella. Pueden ser recolectadas en el Desierto de West Docana</t>
-  </si>
-  <si>
-    <t>Marwa suplica que visites una cueva cercana y la ayudes a recuperar sus objetos perdidos. Pero ten cuidado, hay Yetis acechando dentro</t>
-  </si>
-  <si>
-    <t>Lleva a Threnody de regreso al Pueblo de Piedra Caliza, en el extremo este de la ventisca de nieve</t>
-  </si>
-  <si>
-    <t>Recoge tres muestras de Madreselva en los bosques al norte y oeste del pueblo</t>
-  </si>
-  <si>
-    <t>Verifica con Threnody ahora que se ha recuperado. Parece que se fue al río al oeste de Limestone Village, cerca de Herb Valley</t>
-  </si>
-  <si>
-    <t>Algo extraño ha sucedido en el Pueblo de Piedra Caliza. Ve allí rápidamente e investiga</t>
-  </si>
-  <si>
-    <t>Encuentra la entrada a la cordillera de Karakorum. Intenta buscar cerca del puente roto al noroeste de la aldea Misty</t>
-  </si>
-  <si>
-    <t>Deja las Montañas Karakorum</t>
-  </si>
-  <si>
-    <t>¿Dónde puedo aprender más sobre Threnody?</t>
-  </si>
-  <si>
-    <t>Entra en la cabaña del cazador</t>
-  </si>
-  <si>
-    <t>Encuentra al técnico que mencionó Threnody</t>
-  </si>
-  <si>
-    <t>El técnico no está en casa. Debería estar cerca - sigue buscándolo</t>
-  </si>
-  <si>
-    <t>Vuelve con el técnico a su residencia</t>
-  </si>
-  <si>
-    <t>Despídete del técnico y pregúntale a Threnody qué quiere que él haga</t>
-  </si>
-  <si>
-    <t>El mendigo te habla sobre un secreto oculto en las ruinas del desierto. Susurra solo dos palabras: Ciudad Infinita</t>
-  </si>
-  <si>
-    <t>Busca al mendigo para entender la causa</t>
-  </si>
-  <si>
-    <t>El viejo mendigo espera que puedas traerle un pastel de rosas</t>
-  </si>
-  <si>
-    <t>El mendigo susurra otra palabra secreta: T a s h a</t>
-  </si>
-  <si>
-    <t>Explora la Ciudad Infinita con tu grupo de expedición de tres personas</t>
-  </si>
-  <si>
-    <t>Adiós, viejo amigo</t>
-  </si>
-  <si>
-    <t>Anhelo</t>
-  </si>
-  <si>
-    <t>El Libro del Aventurero</t>
-  </si>
-  <si>
-    <t>Las Rosas Doradas</t>
-  </si>
-  <si>
-    <t>Demanda ebria</t>
-  </si>
-  <si>
-    <t>Mascarilla de barro</t>
-  </si>
-  <si>
-    <t>Plumaje valiente</t>
-  </si>
-  <si>
-    <t>Él ve conchas marinas</t>
-  </si>
-  <si>
-    <t>La comida perfecta</t>
-  </si>
-  <si>
-    <t>Locura de setas</t>
-  </si>
-  <si>
-    <t>Derrota a los lobos árticos</t>
-  </si>
-  <si>
-    <t>Derrota a los Centauros</t>
-  </si>
-  <si>
-    <t>Derrota a Bahar</t>
-  </si>
-  <si>
-    <t>Derrota a los aprendices de Windblade</t>
-  </si>
-  <si>
-    <t>Derrota al Garuda</t>
-  </si>
-  <si>
-    <t>Derrota al Ifrit</t>
-  </si>
-  <si>
-    <t>Control de plagas</t>
-  </si>
-  <si>
-    <t>Descontento</t>
-  </si>
-  <si>
-    <t>Búsqueda en el desierto</t>
-  </si>
-  <si>
-    <t>Botica del Desierto</t>
-  </si>
-  <si>
-    <t>Pueblo de piedra caliza</t>
-  </si>
-  <si>
-    <t>Madreselva</t>
-  </si>
-  <si>
-    <t>Revisión de la elegía</t>
-  </si>
-  <si>
-    <t>Volver al pueblo de Limestone</t>
-  </si>
-  <si>
-    <t>Las Montañas Karakorum</t>
-  </si>
-  <si>
-    <t>Sueños derretidos</t>
-  </si>
-  <si>
-    <t>¿Ciudad sin fin?</t>
-  </si>
-  <si>
-    <t>Causa y Efecto</t>
-  </si>
-  <si>
-    <t>Pastel de rosas</t>
-  </si>
-  <si>
-    <t>¿Tasha?</t>
-  </si>
-  <si>
-    <t>Exploración infinita</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Rusen#1##沙盒黑崖花卉乡:-1163,-1504:250|花卉乡瑞拉</t>
-  </si>
-  <si>
-    <t>4#Recuperar 5 vasijas de licor#5#烈酒#</t>
-  </si>
-  <si>
-    <t>0#Investigar el campamento de los Grunts#1##大雪山:2029,12375:250|能言人语找到咕噜营地.
-0#Investigar el campamento de los Grunts#1##大雪山:2029,12375:250|能言人语找到咕噜营地</t>
-  </si>
-  <si>
-    <t>0#Volver a Limestone Village#1##大雪山:11450,3573:0|trigger:青石村大妖战斗.
-0#Volver a Limestone Village#1##大雪山:11450,3573:0|trigger:青石村大妖战斗.</t>
-  </si>
-  <si>
-    <t>0#Encuentra al técnico#1|trigger:选择灰雪北边河谷去东侧找机械师</t>
-  </si>
-  <si>
-    <t>0#Encuentra al Técnico#1|trigger:选择灰雪北边河谷北边机械师战斗触发</t>
-  </si>
-  <si>
-    <t>0#Volver a casa del técnico#1|北边河谷等待灰雪</t>
-  </si>
-  <si>
-    <t>0#Recoger Madreselva ACHEST:青石村找回药草1
-0#Recoger Madreselva B#1|CHEST:青石村找回药草2
-0#Recoger Madreselva C#1|CHEST:青石村找回药草3</t>
-  </si>
-  <si>
-    <t>0#Sigue a Threnody#1##大雪山:7221,3048:0|苏醒灰雪2.
-0#Sigue a Threnody#1##大雪山:7221,3048:0|苏醒灰雪2</t>
-  </si>
-  <si>
-    <t>0#Derrota al Yeti#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞.
-0#Derrota al Yeti#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞</t>
-  </si>
-  <si>
-    <t>3#Derrota 10 manadas de Lobos Árticos#10#雪狼#</t>
+    <t>Adeus, velho amigo</t>
+  </si>
+  <si>
+    <t>Anseio</t>
+  </si>
+  <si>
+    <t>O livro do aventureiro</t>
+  </si>
+  <si>
+    <t>As rosas douradas</t>
+  </si>
+  <si>
+    <t>Demanda Bêbada</t>
+  </si>
+  <si>
+    <t>Pacote de lama</t>
+  </si>
+  <si>
+    <t>Plumagem corajosa</t>
+  </si>
+  <si>
+    <t>Ele vê conchas</t>
+  </si>
+  <si>
+    <t>A refeição perfeita</t>
+  </si>
+  <si>
+    <t>Cogumelo Louco</t>
+  </si>
+  <si>
+    <t>Derrote os Lobos Árticos</t>
+  </si>
+  <si>
+    <t>Derrote os Centauros</t>
+  </si>
+  <si>
+    <t>Derrote o Bahar</t>
+  </si>
+  <si>
+    <t>Derrote os Aprendizes Windblade</t>
+  </si>
+  <si>
+    <t>Derrote o Garuda</t>
+  </si>
+  <si>
+    <t>Derrote o Ifrit</t>
+  </si>
+  <si>
+    <t>Controle de pragas</t>
+  </si>
+  <si>
+    <t>Desapontado</t>
+  </si>
+  <si>
+    <t>Pesquisa no Deserto</t>
+  </si>
+  <si>
+    <t>Boticário do Deserto</t>
+  </si>
+  <si>
+    <t>Aldeia de Calcário</t>
+  </si>
+  <si>
+    <t>Madressilva</t>
+  </si>
+  <si>
+    <t>Verificação de Trenody</t>
+  </si>
+  <si>
+    <t>Retorne à vila de calcário</t>
+  </si>
+  <si>
+    <t>As montanhas Karakorum</t>
+  </si>
+  <si>
+    <t>Deixe as montanhas Karakorum</t>
+  </si>
+  <si>
+    <t>Sonhos derretidos</t>
+  </si>
+  <si>
+    <t>Cidade sem fim?</t>
+  </si>
+  <si>
+    <t>Causa e efeito</t>
+  </si>
+  <si>
+    <t>Bolo Rosa</t>
+  </si>
+  <si>
+    <t>Tasha??</t>
+  </si>
+  <si>
+    <t>Exploração sem fim</t>
+  </si>
+  <si>
+    <t>Jabbar espera que você possa ajudar a encontrar Jalal e entregar uma carta para ele.</t>
+  </si>
+  <si>
+    <t>Mountain Wolf espera que você encontre Maram no Vale Twinluna e entregue uma carta para ela.</t>
+  </si>
+  <si>
+    <t>A filha de Qasim, Rusen, está na Vila Fleur. Ajude a entregar a carta de Qasim para ela.</t>
+  </si>
+  <si>
+    <t>Tahir pede que você encontre 3 rosas para ele. Diz a lenda que essas plantas só florescem em algum lugar do vasto deserto.</t>
+  </si>
+  <si>
+    <t>Um bêbado de Dunestorm pede que você o ajude a encontrar 5 tambores de bebida para ele.</t>
+  </si>
+  <si>
+    <t>Golriz pede que você encontre três amostras de Hot Spring Mud para ela.</t>
+  </si>
+  <si>
+    <t>Koray pede que você encontre duas amostras de penas para ela. O Forte Qebui, nas montanhas Zagros, deve ter alguns à venda.</t>
+  </si>
+  <si>
+    <t>Amar está procurando uma Concha Padronizada e uma Concha Triponto. A cidade de Agadir, no Vale Twinluna, deverá ter alguns à venda.</t>
+  </si>
+  <si>
+    <t>Rajif está preparando o banquete perfeito e está procurando um pedaço de Carne Requintada, Cordeiro Requintado e Frango Requintado.</t>
+  </si>
+  <si>
+    <t>Dariush está preparando o banquete perfeito e está procurando um pedaço de Cogumelo Dourado, Penny Bun, Stinkhorn e Cogumelo Tashashu.</t>
+  </si>
+  <si>
+    <t>Snow Heron espera que você consiga lutar contra 3 matilhas de Lobos Árticos.</t>
+  </si>
+  <si>
+    <t>Yaseen espera que você consiga lutar contra 3 rebanhos de centauros.</t>
+  </si>
+  <si>
+    <t>Ormazd espera que você consiga lutar contra 3 esquadrões de Bahar.</t>
+  </si>
+  <si>
+    <t>Kourosh espera que você consiga lutar contra 3 esquadrões de Windblade Apprentices.</t>
+  </si>
+  <si>
+    <t>O Espadachim Nasir espera que você consiga lutar contra 3 Garuda.</t>
+  </si>
+  <si>
+    <t>Amir espera que você consiga lutar contra 3 esquadrões de Trabalhadores Ifrit.</t>
+  </si>
+  <si>
+    <t>Sara, da Vila Fleur, espera que você consiga derrotar os Arnab que infestam os campos ao norte do posto avançado.</t>
+  </si>
+  <si>
+    <t>Volte para Sara para dizer que os Arnab foram embora.</t>
+  </si>
+  <si>
+    <t>Latif espera que você possa investigar o acampamento dos Grunts.</t>
+  </si>
+  <si>
+    <t>Encontre para Maimun um pedaço de carne grelhada Ifrit. Experimente as lojas Fleur e Mireton ou Diresprings.</t>
+  </si>
+  <si>
+    <t>Volte para Latif e diga a ele que os Grunts foram embora.</t>
+  </si>
+  <si>
+    <t>Tanar pede para você encontrar Seyah, sua irmã desaparecida, no Camel Bell Bazaar.</t>
+  </si>
+  <si>
+    <t>Um boticário pede que você encontre 3 orquídeas West Docana para ela. Eles podem ser coletados no Deserto de West Docana.</t>
+  </si>
+  <si>
+    <t>Marwa implora para que você visite uma caverna próxima e ajude a recuperar seus itens perdidos. Porém, tenha cuidado - Yeti está escondido lá dentro.</t>
+  </si>
+  <si>
+    <t>Leve Threnody de volta para Limestone Village, na extremidade leste do monte de neve.</t>
+  </si>
+  <si>
+    <t>Colete três amostras de madressilva nas florestas ao norte e oeste da cidade.</t>
+  </si>
+  <si>
+    <t>Fale com Threnody agora que ela está recuperada. Parece que ela partiu para o rio a oeste de Limestone Village, perto de Herb Valley.</t>
+  </si>
+  <si>
+    <t>Algo estranho aconteceu com Limestone Village. Chegue lá imediatamente e investigue.</t>
+  </si>
+  <si>
+    <t>Encontre a entrada para a cordilheira Karakorum. Tente procurar perto da ponte quebrada a noroeste da Vila da Névoa.</t>
+  </si>
+  <si>
+    <t>Onde posso aprender mais sobre Threnody?</t>
+  </si>
+  <si>
+    <t>Entre na cabana do caçador.</t>
+  </si>
+  <si>
+    <t>Encontre o técnico que Threnody mencionou.</t>
+  </si>
+  <si>
+    <t>O técnico não está em casa. Ele deveria estar por perto - continue procurando por ele.</t>
+  </si>
+  <si>
+    <t>Volte com o técnico para sua residência.</t>
+  </si>
+  <si>
+    <t>Despeça-se do técnico e pergunte a Threnody o que ela quer que ele faça.</t>
+  </si>
+  <si>
+    <t>O mendigo conta sobre um segredo que está nas ruínas do deserto. Ele sussurra apenas duas palavras: Cidade Infinita.</t>
+  </si>
+  <si>
+    <t>Procure o mendigo para entender a causa.</t>
+  </si>
+  <si>
+    <t>O velho mendigo espera que você traga um bolo de rosas para ele.</t>
+  </si>
+  <si>
+    <t>O mendigo sussurra outra palavra secreta: T ash a.</t>
+  </si>
+  <si>
+    <t>Explore Endless City com seu grupo de expedição de três pessoas.</t>
+  </si>
+  <si>
+    <t>0#Encontre Jalal#1##沙盒双月山谷:1804,-973:250|长睚</t>
+  </si>
+  <si>
+    <t>0#Encontre Maram#1##沙盒双月山谷:1792,-5241:250|双月山谷曼玡</t>
+  </si>
+  <si>
+    <t>0#Encontre Rusen#1##沙盒黑崖花卉乡:-1163,-1504:250|花卉乡瑞拉</t>
+  </si>
+  <si>
+    <t>4#Escolha 3 rosas e dê-as para Tahir#3#玫瑰花#</t>
+  </si>
+  <si>
+    <t>4#Recupere 5 tambores de bebida#5#烈酒#</t>
+  </si>
+  <si>
+    <t>4#Recupere 5 pedaços de lama de fontes termais#5#温泉泥#</t>
+  </si>
+  <si>
+    <t>4#Recupere 2 penas para Koray#2#羽毛#</t>
+  </si>
+  <si>
+    <t>4#Recuperar um shell padronizado para Amar#1#花纹贝壳#沙盒双月山谷:-2017,-268:100|LUGAR:浅溪镇 4#Recuperar um shell triponto para Amar#1#三褶贝壳#沙盒双月山谷:-2017,-268:100|LUGAR:浅溪镇</t>
+  </si>
+  <si>
+    <t>4#Recuperar carne requintada para Rajif#1#精致牛肉# 4#Recuperar frango requintado para Rajif#1#精致鸡肉# 4#Recuperar cordeiro requintado para Rajif#1#精致羊肉#</t>
+  </si>
+  <si>
+    <t>4#Recupere 3 Cogumelos Dourados para Dariush#3#金针菇# 4#Recupere 3 Penny Buns para Darius#3#牛肝菌# 4#Recupere 3 Cogumelos Tashashu para Dariush#3#茶树菇# 4#Recupere 3 Stinkhorns para Dariush# 3#竹荪#</t>
+  </si>
+  <si>
+    <t>3#Derrote 10 matilhas de Lobos Árticos#10#雪狼#</t>
+  </si>
+  <si>
+    <t>3#Derrote 3 manadas de Centauros#3#人马战士#</t>
+  </si>
+  <si>
+    <t>3#Derrote 20 Bahar#20#骨刺鱼人#</t>
+  </si>
+  <si>
+    <t>3#Derrote 5 Aprendizes de Windblade#5#风刃学徒#</t>
+  </si>
+  <si>
+    <t>3#Derrote 3 Garuda#3#鹰身人#</t>
+  </si>
+  <si>
+    <t>3#Derrote 10 Trabalhadores Ifrit#10#火魔苦工#3#Derrote 10 Escravos Ifrit#10#火魔奴隶#</t>
+  </si>
+  <si>
+    <t>0#Derrote Arnab#1|爱美之心兔犬</t>
+  </si>
+  <si>
+    <t>0#Encontre Sara#1</t>
+  </si>
+  <si>
+    <t>0#Investigar o acampamento dos Grunts#1##大雪山:2029,12375:250|能言人语找到咕噜营地</t>
+  </si>
+  <si>
+    <t>4#Recupere a carne grelhada Ifrit para Maimun#1#魔焰火烧牛肉#</t>
+  </si>
+  <si>
+    <t>0#Encontre Latif#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Seyah#1##大沙漠:-1063,-4597:250|大沙漠莎莉雅</t>
+  </si>
+  <si>
+    <t>4#Colete 3 orquídeas West Docana#3#西多喀那兰#</t>
+  </si>
+  <si>
+    <t>0#Derrote o Yeti#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞</t>
+  </si>
+  <si>
+    <t>0#Leve Threnody de volta para Limestone Village#1##大雪山:11590,2834:0|trigger:青石村村子门口</t>
+  </si>
+  <si>
+    <t>0#Colete Madressilva A#1|BAIXO:青石村找回药草1 0#Colete Madressilva B#1|BAIXO:青石村找回药草2 0#Colete Madressilva C#1|BAIXO:青石村找回药草3</t>
+  </si>
+  <si>
+    <t>0#Siga Threnody#1##大雪山:7221,3048:0|苏醒灰雪2</t>
+  </si>
+  <si>
+    <t>0#Volte para Limestone Village#1##大雪山:11450,3573:0|trigger:青石村大妖战斗</t>
+  </si>
+  <si>
+    <t>0#Vá para as montanhas Karakorum#1##大雪山:8405,17175:0|trigger:阿拉尔山传送</t>
+  </si>
+  <si>
+    <t>0#Deixe as montanhas Karakorum#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Trenody#1</t>
+  </si>
+  <si>
+    <t>0#Cabana do Caçador#1</t>
+  </si>
+  <si>
+    <t>0#Encontre o Técnico#1|gatilho:选择灰雪北边河谷去东侧找机械师</t>
+  </si>
+  <si>
+    <t>0#Encontre o Técnico#1|gatilho:选择灰雪北边河谷北边机械师战斗触发</t>
+  </si>
+  <si>
+    <t>0#Retornar para a casa do Técnico#1|北边河谷等待灰雪</t>
+  </si>
+  <si>
+    <t>0#Dê adeus ao Técnico#1</t>
+  </si>
+  <si>
+    <t>0#Investigar as ruínas no deserto#1##大沙漠:638,7259:250</t>
+  </si>
+  <si>
+    <t>0#Encontre o mendigo#1##大沙漠:4267,4329:0|大沙漠乞丐</t>
+  </si>
+  <si>
+    <t>4#Dê um bolo de rosas ao mendigo#1#玫瑰花饼#</t>
+  </si>
+  <si>
+    <t>0#Volte para as ruínas no deserto e encontre Tasha#1##大沙漠:638,7259:250</t>
+  </si>
+  <si>
+    <t>0#Explore a Cidade Infinita#1##大沙漠:285,7337:0</t>
   </si>
 </sst>
 </file>
@@ -851,7 +838,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -859,11 +846,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -874,8 +876,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +900,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1193,14 +1198,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60">
@@ -1239,8 +1247,8 @@
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>210</v>
+      <c r="C2" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1248,14 +1256,14 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>169</v>
+      <c r="G2" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>139</v>
+      <c r="I2" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="90">
@@ -1265,8 +1273,8 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>211</v>
+      <c r="C3" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -1274,14 +1282,14 @@
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>170</v>
+      <c r="G3" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
-        <v>140</v>
+      <c r="I3" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="90">
@@ -1291,8 +1299,8 @@
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>212</v>
+      <c r="C4" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -1300,14 +1308,14 @@
       <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
-        <v>171</v>
+      <c r="G4" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
-        <v>241</v>
+      <c r="I4" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="105">
@@ -1317,8 +1325,8 @@
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>213</v>
+      <c r="C5" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1326,14 +1334,14 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
-        <v>172</v>
+      <c r="G5" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
-        <v>141</v>
+      <c r="I5" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
@@ -1343,8 +1351,8 @@
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>214</v>
+      <c r="C6" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1352,14 +1360,14 @@
       <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
-        <v>173</v>
+      <c r="G6" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
-        <v>242</v>
+      <c r="I6" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60">
@@ -1369,8 +1377,8 @@
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>215</v>
+      <c r="C7" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -1378,14 +1386,14 @@
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
-        <v>174</v>
+      <c r="G7" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
-        <v>142</v>
+      <c r="I7" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105">
@@ -1395,8 +1403,8 @@
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>216</v>
+      <c r="C8" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
@@ -1404,14 +1412,14 @@
       <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
-        <v>175</v>
+      <c r="G8" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I8" t="s">
-        <v>143</v>
+      <c r="I8" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="240">
@@ -1421,8 +1429,8 @@
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>217</v>
+      <c r="C9" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
@@ -1430,14 +1438,14 @@
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
-        <v>176</v>
+      <c r="G9" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I9" t="s">
-        <v>144</v>
+      <c r="I9" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="180">
@@ -1447,8 +1455,8 @@
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>218</v>
+      <c r="C10" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -1456,14 +1464,14 @@
       <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
-        <v>177</v>
+      <c r="G10" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" t="s">
-        <v>145</v>
+      <c r="I10" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="240">
@@ -1473,8 +1481,8 @@
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>219</v>
+      <c r="C11" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -1482,14 +1490,14 @@
       <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
-        <v>178</v>
+      <c r="G11" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I11" t="s">
-        <v>146</v>
+      <c r="I11" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45">
@@ -1499,8 +1507,8 @@
       <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>220</v>
+      <c r="C12" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -1508,14 +1516,14 @@
       <c r="F12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
-        <v>179</v>
+      <c r="G12" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I12" t="s">
-        <v>251</v>
+      <c r="I12" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45">
@@ -1525,8 +1533,8 @@
       <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
-        <v>221</v>
+      <c r="C13" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -1534,14 +1542,14 @@
       <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" t="s">
-        <v>180</v>
+      <c r="G13" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I13" t="s">
-        <v>147</v>
+      <c r="I13" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="60">
@@ -1551,8 +1559,8 @@
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
-        <v>222</v>
+      <c r="C14" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -1560,14 +1568,14 @@
       <c r="F14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G14" t="s">
-        <v>181</v>
+      <c r="G14" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I14" t="s">
-        <v>148</v>
+      <c r="I14" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
@@ -1577,8 +1585,8 @@
       <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
-        <v>223</v>
+      <c r="C15" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -1586,14 +1594,14 @@
       <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
-        <v>182</v>
+      <c r="G15" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I15" t="s">
-        <v>149</v>
+      <c r="I15" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45">
@@ -1603,8 +1611,8 @@
       <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
-        <v>224</v>
+      <c r="C16" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
@@ -1612,14 +1620,14 @@
       <c r="F16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G16" t="s">
-        <v>183</v>
+      <c r="G16" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I16" t="s">
-        <v>150</v>
+      <c r="I16" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="120">
@@ -1629,8 +1637,8 @@
       <c r="B17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
-        <v>225</v>
+      <c r="C17" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -1638,14 +1646,14 @@
       <c r="F17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
-        <v>184</v>
+      <c r="G17" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="90">
@@ -1655,8 +1663,8 @@
       <c r="B18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
-        <v>226</v>
+      <c r="C18" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -1664,14 +1672,14 @@
       <c r="F18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G18" t="s">
-        <v>185</v>
+      <c r="G18" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I18" t="s">
-        <v>152</v>
+      <c r="I18" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="60">
@@ -1681,8 +1689,8 @@
       <c r="B19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
-        <v>226</v>
+      <c r="C19" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -1690,14 +1698,14 @@
       <c r="F19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G19" t="s">
-        <v>186</v>
+      <c r="G19" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I19" t="s">
-        <v>153</v>
+      <c r="I19" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90">
@@ -1707,8 +1715,8 @@
       <c r="B20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
-        <v>227</v>
+      <c r="C20" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -1716,14 +1724,14 @@
       <c r="F20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G20" t="s">
-        <v>187</v>
+      <c r="G20" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I20" t="s">
-        <v>243</v>
+      <c r="I20" s="4" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105">
@@ -1733,8 +1741,8 @@
       <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
-        <v>227</v>
+      <c r="C21" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
@@ -1742,14 +1750,14 @@
       <c r="F21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G21" t="s">
-        <v>188</v>
+      <c r="G21" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I21" t="s">
-        <v>154</v>
+      <c r="I21" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45">
@@ -1759,8 +1767,8 @@
       <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
-        <v>227</v>
+      <c r="C22" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
@@ -1768,14 +1776,14 @@
       <c r="F22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G22" t="s">
-        <v>189</v>
+      <c r="G22" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I22" t="s">
-        <v>155</v>
+      <c r="I22" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90">
@@ -1785,20 +1793,20 @@
       <c r="B23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C23" t="s">
-        <v>228</v>
+      <c r="C23" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G23" t="s">
-        <v>190</v>
+      <c r="G23" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I23" t="s">
-        <v>156</v>
+      <c r="I23" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="120">
@@ -1808,20 +1816,20 @@
       <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C24" t="s">
-        <v>229</v>
+      <c r="C24" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G24" t="s">
-        <v>191</v>
+      <c r="G24" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I24" t="s">
-        <v>157</v>
+      <c r="I24" s="4" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105">
@@ -1831,20 +1839,20 @@
       <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G25" t="s">
-        <v>192</v>
+      <c r="G25" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I25" t="s">
-        <v>250</v>
+      <c r="I25" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="90">
@@ -1854,20 +1862,20 @@
       <c r="B26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C26" t="s">
-        <v>230</v>
+      <c r="C26" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G26" t="s">
-        <v>193</v>
+      <c r="G26" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I26" t="s">
-        <v>158</v>
+      <c r="I26" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="180">
@@ -1877,8 +1885,8 @@
       <c r="B27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s">
-        <v>231</v>
+      <c r="C27" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
@@ -1886,14 +1894,14 @@
       <c r="F27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G27" t="s">
-        <v>194</v>
+      <c r="G27" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="150">
@@ -1903,8 +1911,8 @@
       <c r="B28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C28" t="s">
-        <v>232</v>
+      <c r="C28" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
@@ -1912,14 +1920,14 @@
       <c r="F28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G28" t="s">
-        <v>195</v>
+      <c r="G28" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I28" t="s">
-        <v>249</v>
+      <c r="I28" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90">
@@ -1929,8 +1937,8 @@
       <c r="B29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C29" t="s">
-        <v>233</v>
+      <c r="C29" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1938,14 +1946,14 @@
       <c r="F29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G29" t="s">
-        <v>196</v>
+      <c r="G29" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I29" t="s">
-        <v>244</v>
+      <c r="I29" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105">
@@ -1955,8 +1963,8 @@
       <c r="B30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C30" t="s">
-        <v>234</v>
+      <c r="C30" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
@@ -1964,14 +1972,14 @@
       <c r="F30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G30" t="s">
-        <v>197</v>
+      <c r="G30" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I30" t="s">
-        <v>159</v>
+      <c r="I30" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30">
@@ -1981,8 +1989,8 @@
       <c r="B31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C31" t="s">
-        <v>198</v>
+      <c r="C31" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1990,14 +1998,14 @@
       <c r="F31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G31" t="s">
-        <v>198</v>
+      <c r="G31" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I31" t="s">
-        <v>160</v>
+      <c r="I31" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="60">
@@ -2007,8 +2015,8 @@
       <c r="B32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C32" t="s">
-        <v>235</v>
+      <c r="C32" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
@@ -2016,14 +2024,14 @@
       <c r="F32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G32" t="s">
-        <v>199</v>
+      <c r="G32" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I32" t="s">
-        <v>161</v>
+      <c r="I32" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30">
@@ -2033,8 +2041,8 @@
       <c r="B33" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C33" t="s">
-        <v>235</v>
+      <c r="C33" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
@@ -2042,14 +2050,14 @@
       <c r="F33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G33" t="s">
-        <v>200</v>
+      <c r="G33" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I33" t="s">
-        <v>162</v>
+      <c r="I33" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="90">
@@ -2059,8 +2067,8 @@
       <c r="B34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C34" t="s">
-        <v>235</v>
+      <c r="C34" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
@@ -2068,14 +2076,14 @@
       <c r="F34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G34" t="s">
-        <v>201</v>
+      <c r="G34" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I34" t="s">
-        <v>245</v>
+      <c r="I34" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="90">
@@ -2085,8 +2093,8 @@
       <c r="B35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C35" t="s">
-        <v>235</v>
+      <c r="C35" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
@@ -2094,14 +2102,14 @@
       <c r="F35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G35" t="s">
-        <v>202</v>
+      <c r="G35" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I35" t="s">
-        <v>246</v>
+      <c r="I35" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="60">
@@ -2111,8 +2119,8 @@
       <c r="B36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C36" t="s">
-        <v>235</v>
+      <c r="C36" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -2120,14 +2128,14 @@
       <c r="F36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G36" t="s">
-        <v>203</v>
+      <c r="G36" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I36" t="s">
-        <v>247</v>
+      <c r="I36" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="60">
@@ -2137,8 +2145,8 @@
       <c r="B37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C37" t="s">
-        <v>235</v>
+      <c r="C37" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -2146,14 +2154,14 @@
       <c r="F37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G37" t="s">
-        <v>204</v>
+      <c r="G37" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I37" t="s">
-        <v>163</v>
+      <c r="I37" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90">
@@ -2163,8 +2171,8 @@
       <c r="B38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C38" t="s">
-        <v>236</v>
+      <c r="C38" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
@@ -2172,14 +2180,14 @@
       <c r="F38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G38" t="s">
-        <v>205</v>
+      <c r="G38" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I38" t="s">
-        <v>164</v>
+      <c r="I38" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="75">
@@ -2189,8 +2197,8 @@
       <c r="B39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C39" t="s">
-        <v>237</v>
+      <c r="C39" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
@@ -2198,14 +2206,14 @@
       <c r="F39" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G39" t="s">
-        <v>206</v>
+      <c r="G39" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I39" t="s">
-        <v>165</v>
+      <c r="I39" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="60">
@@ -2215,8 +2223,8 @@
       <c r="B40" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C40" t="s">
-        <v>238</v>
+      <c r="C40" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
@@ -2224,14 +2232,14 @@
       <c r="F40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G40" t="s">
-        <v>207</v>
+      <c r="G40" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I40" t="s">
-        <v>166</v>
+      <c r="I40" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="90">
@@ -2241,8 +2249,8 @@
       <c r="B41" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C41" t="s">
-        <v>239</v>
+      <c r="C41" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
@@ -2250,14 +2258,14 @@
       <c r="F41" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G41" t="s">
-        <v>208</v>
+      <c r="G41" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I41" t="s">
-        <v>167</v>
+      <c r="I41" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="90">
@@ -2267,8 +2275,8 @@
       <c r="B42" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C42" t="s">
-        <v>240</v>
+      <c r="C42" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
@@ -2276,14 +2284,14 @@
       <c r="F42" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G42" t="s">
-        <v>209</v>
+      <c r="G42" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I42" t="s">
-        <v>168</v>
+      <c r="I42" s="4" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C22655-35AF-4328-B209-3F1655F577F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6315F1-5F8A-4B5C-B09A-8DFFA3D081E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -459,343 +459,356 @@
     <t>0#和三人探险小队前往无尽城探索#1##大沙漠:285,7337:0</t>
   </si>
   <si>
-    <t>Adeus, velho amigo</t>
-  </si>
-  <si>
-    <t>Anseio</t>
-  </si>
-  <si>
-    <t>O livro do aventureiro</t>
-  </si>
-  <si>
-    <t>As rosas douradas</t>
-  </si>
-  <si>
-    <t>Demanda Bêbada</t>
-  </si>
-  <si>
-    <t>Pacote de lama</t>
-  </si>
-  <si>
-    <t>Plumagem corajosa</t>
-  </si>
-  <si>
-    <t>Ele vê conchas</t>
-  </si>
-  <si>
-    <t>A refeição perfeita</t>
-  </si>
-  <si>
-    <t>Cogumelo Louco</t>
-  </si>
-  <si>
-    <t>Derrote os Lobos Árticos</t>
-  </si>
-  <si>
-    <t>Derrote os Centauros</t>
-  </si>
-  <si>
-    <t>Derrote o Bahar</t>
-  </si>
-  <si>
-    <t>Derrote os Aprendizes Windblade</t>
-  </si>
-  <si>
-    <t>Derrote o Garuda</t>
-  </si>
-  <si>
-    <t>Derrote o Ifrit</t>
-  </si>
-  <si>
-    <t>Controle de pragas</t>
-  </si>
-  <si>
-    <t>Desapontado</t>
-  </si>
-  <si>
-    <t>Pesquisa no Deserto</t>
-  </si>
-  <si>
-    <t>Boticário do Deserto</t>
-  </si>
-  <si>
-    <t>Aldeia de Calcário</t>
-  </si>
-  <si>
-    <t>Madressilva</t>
-  </si>
-  <si>
-    <t>Verificação de Trenody</t>
-  </si>
-  <si>
-    <t>Retorne à vila de calcário</t>
-  </si>
-  <si>
-    <t>As montanhas Karakorum</t>
-  </si>
-  <si>
-    <t>Deixe as montanhas Karakorum</t>
-  </si>
-  <si>
-    <t>Sonhos derretidos</t>
-  </si>
-  <si>
-    <t>Cidade sem fim?</t>
-  </si>
-  <si>
-    <t>Causa e efeito</t>
-  </si>
-  <si>
-    <t>Bolo Rosa</t>
-  </si>
-  <si>
-    <t>Tasha??</t>
-  </si>
-  <si>
-    <t>Exploração sem fim</t>
-  </si>
-  <si>
-    <t>Jabbar espera que você possa ajudar a encontrar Jalal e entregar uma carta para ele.</t>
-  </si>
-  <si>
-    <t>Mountain Wolf espera que você encontre Maram no Vale Twinluna e entregue uma carta para ela.</t>
-  </si>
-  <si>
-    <t>A filha de Qasim, Rusen, está na Vila Fleur. Ajude a entregar a carta de Qasim para ela.</t>
-  </si>
-  <si>
-    <t>Tahir pede que você encontre 3 rosas para ele. Diz a lenda que essas plantas só florescem em algum lugar do vasto deserto.</t>
-  </si>
-  <si>
-    <t>Um bêbado de Dunestorm pede que você o ajude a encontrar 5 tambores de bebida para ele.</t>
-  </si>
-  <si>
-    <t>Golriz pede que você encontre três amostras de Hot Spring Mud para ela.</t>
-  </si>
-  <si>
-    <t>Koray pede que você encontre duas amostras de penas para ela. O Forte Qebui, nas montanhas Zagros, deve ter alguns à venda.</t>
-  </si>
-  <si>
-    <t>Amar está procurando uma Concha Padronizada e uma Concha Triponto. A cidade de Agadir, no Vale Twinluna, deverá ter alguns à venda.</t>
-  </si>
-  <si>
-    <t>Rajif está preparando o banquete perfeito e está procurando um pedaço de Carne Requintada, Cordeiro Requintado e Frango Requintado.</t>
-  </si>
-  <si>
-    <t>Dariush está preparando o banquete perfeito e está procurando um pedaço de Cogumelo Dourado, Penny Bun, Stinkhorn e Cogumelo Tashashu.</t>
-  </si>
-  <si>
-    <t>Snow Heron espera que você consiga lutar contra 3 matilhas de Lobos Árticos.</t>
-  </si>
-  <si>
-    <t>Yaseen espera que você consiga lutar contra 3 rebanhos de centauros.</t>
-  </si>
-  <si>
-    <t>Ormazd espera que você consiga lutar contra 3 esquadrões de Bahar.</t>
-  </si>
-  <si>
-    <t>Kourosh espera que você consiga lutar contra 3 esquadrões de Windblade Apprentices.</t>
-  </si>
-  <si>
-    <t>O Espadachim Nasir espera que você consiga lutar contra 3 Garuda.</t>
-  </si>
-  <si>
-    <t>Amir espera que você consiga lutar contra 3 esquadrões de Trabalhadores Ifrit.</t>
-  </si>
-  <si>
-    <t>Sara, da Vila Fleur, espera que você consiga derrotar os Arnab que infestam os campos ao norte do posto avançado.</t>
-  </si>
-  <si>
-    <t>Volte para Sara para dizer que os Arnab foram embora.</t>
-  </si>
-  <si>
-    <t>Latif espera que você possa investigar o acampamento dos Grunts.</t>
-  </si>
-  <si>
-    <t>Encontre para Maimun um pedaço de carne grelhada Ifrit. Experimente as lojas Fleur e Mireton ou Diresprings.</t>
-  </si>
-  <si>
-    <t>Volte para Latif e diga a ele que os Grunts foram embora.</t>
-  </si>
-  <si>
-    <t>Tanar pede para você encontrar Seyah, sua irmã desaparecida, no Camel Bell Bazaar.</t>
-  </si>
-  <si>
-    <t>Um boticário pede que você encontre 3 orquídeas West Docana para ela. Eles podem ser coletados no Deserto de West Docana.</t>
-  </si>
-  <si>
-    <t>Marwa implora para que você visite uma caverna próxima e ajude a recuperar seus itens perdidos. Porém, tenha cuidado - Yeti está escondido lá dentro.</t>
-  </si>
-  <si>
-    <t>Leve Threnody de volta para Limestone Village, na extremidade leste do monte de neve.</t>
-  </si>
-  <si>
-    <t>Colete três amostras de madressilva nas florestas ao norte e oeste da cidade.</t>
-  </si>
-  <si>
-    <t>Fale com Threnody agora que ela está recuperada. Parece que ela partiu para o rio a oeste de Limestone Village, perto de Herb Valley.</t>
-  </si>
-  <si>
-    <t>Algo estranho aconteceu com Limestone Village. Chegue lá imediatamente e investigue.</t>
-  </si>
-  <si>
-    <t>Encontre a entrada para a cordilheira Karakorum. Tente procurar perto da ponte quebrada a noroeste da Vila da Névoa.</t>
-  </si>
-  <si>
-    <t>Onde posso aprender mais sobre Threnody?</t>
-  </si>
-  <si>
-    <t>Entre na cabana do caçador.</t>
-  </si>
-  <si>
-    <t>Encontre o técnico que Threnody mencionou.</t>
-  </si>
-  <si>
-    <t>O técnico não está em casa. Ele deveria estar por perto - continue procurando por ele.</t>
-  </si>
-  <si>
-    <t>Volte com o técnico para sua residência.</t>
-  </si>
-  <si>
-    <t>Despeça-se do técnico e pergunte a Threnody o que ela quer que ele faça.</t>
-  </si>
-  <si>
-    <t>O mendigo conta sobre um segredo que está nas ruínas do deserto. Ele sussurra apenas duas palavras: Cidade Infinita.</t>
-  </si>
-  <si>
-    <t>Procure o mendigo para entender a causa.</t>
-  </si>
-  <si>
-    <t>O velho mendigo espera que você traga um bolo de rosas para ele.</t>
-  </si>
-  <si>
-    <t>O mendigo sussurra outra palavra secreta: T ash a.</t>
-  </si>
-  <si>
-    <t>Explore Endless City com seu grupo de expedição de três pessoas.</t>
-  </si>
-  <si>
-    <t>0#Encontre Jalal#1##沙盒双月山谷:1804,-973:250|长睚</t>
-  </si>
-  <si>
-    <t>0#Encontre Maram#1##沙盒双月山谷:1792,-5241:250|双月山谷曼玡</t>
-  </si>
-  <si>
-    <t>0#Encontre Rusen#1##沙盒黑崖花卉乡:-1163,-1504:250|花卉乡瑞拉</t>
-  </si>
-  <si>
-    <t>4#Escolha 3 rosas e dê-as para Tahir#3#玫瑰花#</t>
-  </si>
-  <si>
-    <t>4#Recupere 5 tambores de bebida#5#烈酒#</t>
-  </si>
-  <si>
-    <t>4#Recupere 5 pedaços de lama de fontes termais#5#温泉泥#</t>
-  </si>
-  <si>
-    <t>4#Recupere 2 penas para Koray#2#羽毛#</t>
-  </si>
-  <si>
-    <t>4#Recuperar um shell padronizado para Amar#1#花纹贝壳#沙盒双月山谷:-2017,-268:100|LUGAR:浅溪镇 4#Recuperar um shell triponto para Amar#1#三褶贝壳#沙盒双月山谷:-2017,-268:100|LUGAR:浅溪镇</t>
-  </si>
-  <si>
-    <t>4#Recuperar carne requintada para Rajif#1#精致牛肉# 4#Recuperar frango requintado para Rajif#1#精致鸡肉# 4#Recuperar cordeiro requintado para Rajif#1#精致羊肉#</t>
-  </si>
-  <si>
-    <t>4#Recupere 3 Cogumelos Dourados para Dariush#3#金针菇# 4#Recupere 3 Penny Buns para Darius#3#牛肝菌# 4#Recupere 3 Cogumelos Tashashu para Dariush#3#茶树菇# 4#Recupere 3 Stinkhorns para Dariush# 3#竹荪#</t>
-  </si>
-  <si>
-    <t>3#Derrote 10 matilhas de Lobos Árticos#10#雪狼#</t>
-  </si>
-  <si>
-    <t>3#Derrote 3 manadas de Centauros#3#人马战士#</t>
-  </si>
-  <si>
-    <t>3#Derrote 20 Bahar#20#骨刺鱼人#</t>
-  </si>
-  <si>
-    <t>3#Derrote 5 Aprendizes de Windblade#5#风刃学徒#</t>
-  </si>
-  <si>
-    <t>3#Derrote 3 Garuda#3#鹰身人#</t>
-  </si>
-  <si>
-    <t>3#Derrote 10 Trabalhadores Ifrit#10#火魔苦工#3#Derrote 10 Escravos Ifrit#10#火魔奴隶#</t>
-  </si>
-  <si>
-    <t>0#Derrote Arnab#1|爱美之心兔犬</t>
-  </si>
-  <si>
-    <t>0#Encontre Sara#1</t>
-  </si>
-  <si>
-    <t>0#Investigar o acampamento dos Grunts#1##大雪山:2029,12375:250|能言人语找到咕噜营地</t>
-  </si>
-  <si>
-    <t>4#Recupere a carne grelhada Ifrit para Maimun#1#魔焰火烧牛肉#</t>
-  </si>
-  <si>
-    <t>0#Encontre Latif#1</t>
-  </si>
-  <si>
-    <t>0#Encontre Seyah#1##大沙漠:-1063,-4597:250|大沙漠莎莉雅</t>
-  </si>
-  <si>
-    <t>4#Colete 3 orquídeas West Docana#3#西多喀那兰#</t>
-  </si>
-  <si>
-    <t>0#Derrote o Yeti#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞</t>
-  </si>
-  <si>
-    <t>0#Leve Threnody de volta para Limestone Village#1##大雪山:11590,2834:0|trigger:青石村村子门口</t>
-  </si>
-  <si>
-    <t>0#Colete Madressilva A#1|BAIXO:青石村找回药草1 0#Colete Madressilva B#1|BAIXO:青石村找回药草2 0#Colete Madressilva C#1|BAIXO:青石村找回药草3</t>
-  </si>
-  <si>
-    <t>0#Siga Threnody#1##大雪山:7221,3048:0|苏醒灰雪2</t>
-  </si>
-  <si>
-    <t>0#Volte para Limestone Village#1##大雪山:11450,3573:0|trigger:青石村大妖战斗</t>
-  </si>
-  <si>
-    <t>0#Vá para as montanhas Karakorum#1##大雪山:8405,17175:0|trigger:阿拉尔山传送</t>
-  </si>
-  <si>
-    <t>0#Deixe as montanhas Karakorum#1</t>
-  </si>
-  <si>
-    <t>0#Encontre Trenody#1</t>
-  </si>
-  <si>
-    <t>0#Cabana do Caçador#1</t>
-  </si>
-  <si>
-    <t>0#Encontre o Técnico#1|gatilho:选择灰雪北边河谷去东侧找机械师</t>
-  </si>
-  <si>
-    <t>0#Encontre o Técnico#1|gatilho:选择灰雪北边河谷北边机械师战斗触发</t>
-  </si>
-  <si>
-    <t>0#Retornar para a casa do Técnico#1|北边河谷等待灰雪</t>
-  </si>
-  <si>
-    <t>0#Dê adeus ao Técnico#1</t>
-  </si>
-  <si>
-    <t>0#Investigar as ruínas no deserto#1##大沙漠:638,7259:250</t>
-  </si>
-  <si>
-    <t>0#Encontre o mendigo#1##大沙漠:4267,4329:0|大沙漠乞丐</t>
-  </si>
-  <si>
-    <t>4#Dê um bolo de rosas ao mendigo#1#玫瑰花饼#</t>
-  </si>
-  <si>
-    <t>0#Volte para as ruínas no deserto e encontre Tasha#1##大沙漠:638,7259:250</t>
-  </si>
-  <si>
-    <t>0#Explore a Cidade Infinita#1##大沙漠:285,7337:0</t>
+    <t>0#Encuentra a Jalal#1##沙盒双月山谷:1804,-973:250|长睚</t>
+  </si>
+  <si>
+    <t>0#Encuentra a Maram#1##沙盒双月山谷:1792,-5241:250|双月山谷曼玡</t>
+  </si>
+  <si>
+    <t>4#Escoge 3 rosas y dáselas a Tahir#3#玫瑰花#</t>
+  </si>
+  <si>
+    <t>4#Recuperar 5 trozos de barro de aguas termales#5#温泉の泥#</t>
+  </si>
+  <si>
+    <t>4#Recupera 2 plumas para Koray#2#羽毛#</t>
+  </si>
+  <si>
+    <t>4#Recupera una Concha con Patrón para Amar#1#花纹贝壳#沙盒双月山谷:-2017,-268:100|LUGAR:浅溪镇
+4#Recupera una Concha de Tres Puntos para Amar#1#三褶贝壳#沙盒双月山谷:-2017,-268:100|LUGAR:浅溪镇</t>
+  </si>
+  <si>
+    <t>4#Recupera Exquisita Carne de Res para Rajif#1#精致牛肉#
+4#Recupera Exquisito Pollo para Rajif#1#精致鸡肉#
+4#Recupera Exquisito Cordero para Rajif#1#精致羊肉#</t>
+  </si>
+  <si>
+    <t>4#Recoge 3 Champiñones Dorados para Dariush#3#金针菇#
+4#Recoge 3 Boletus para Darius#3#牛肝菌#
+4#Recoge 3 Champiñones Tashashu para Dariush#3#茶树菇#
+4#Recoge 3 Stinkhorns para Dariush#3#竹荪#</t>
+  </si>
+  <si>
+    <t>3#Derrota 3 manadas de centauros#3#人马战士#</t>
+  </si>
+  <si>
+    <t>3#Derrota 20 Bahar#20#骨刺鱼人#</t>
+  </si>
+  <si>
+    <t>3#Derrota a 5 aprendices de Windblade#5#风刃学徒#</t>
+  </si>
+  <si>
+    <t>3#Derrota a 3 Garuda#3#鹰身人#</t>
+  </si>
+  <si>
+    <t>3#Derrota a 10 Trabajadores de Ifrit#10#火魔苦工#
+3#Derrota a 10 Esclavos de Ifrit#10#火魔奴隶#</t>
+  </si>
+  <si>
+    <t>0#Derrota a Arnab#1|爱美之心兔犬</t>
+  </si>
+  <si>
+    <t>0#Encuentra a Sara#1</t>
+  </si>
+  <si>
+    <t>4#Recupera el Buey Asado Ifrit para Maimun#1#魔焰火烧牛肉#</t>
+  </si>
+  <si>
+    <t>0#Encontrar a Latif#1</t>
+  </si>
+  <si>
+    <t>0#Encuentra a Seyah#1##大沙漠:-1063,-4597:250|大沙漠莎莉雅</t>
+  </si>
+  <si>
+    <t>4#Recoger 3 Orquídeas West Docana#3#西多喀那兰#</t>
+  </si>
+  <si>
+    <t>0#Lleva a Threnody de vuelta a Limestone Village#1##大雪山:11590,2834:0|trigger:青石村村子门口</t>
+  </si>
+  <si>
+    <t>0#Ir a las Montañas Karakorum#1##大雪山:8405,17175:0|trigger:阿拉尔山传送</t>
+  </si>
+  <si>
+    <t>0#Deja las Montañas Karakorum#1. Traducción:</t>
+  </si>
+  <si>
+    <t>0#Encuentra Threnody#1</t>
+  </si>
+  <si>
+    <t>0#Cabaña del cazador#1</t>
+  </si>
+  <si>
+    <t>0#Despídete del Técnico#1</t>
+  </si>
+  <si>
+    <t>0#Investigar las ruinas en el desierto#1##大沙漠:638,7259:250</t>
+  </si>
+  <si>
+    <t>0#Encuentra al mendigo#1##大沙漠:4267,4329:0|大沙漠乞丐</t>
+  </si>
+  <si>
+    <t>4#Dale un pastel de rosas al mendigo#1#玫瑰花饼#</t>
+  </si>
+  <si>
+    <t>Vuelve a las ruinas en el desierto y encuentra a Tasha</t>
+  </si>
+  <si>
+    <t>0#Explora la Ciudad Infinita#1##大沙漠:285,7337:0</t>
+  </si>
+  <si>
+    <t>Jabbar espera que puedas ayudar a encontrar a Jalal y entregarle una carta</t>
+  </si>
+  <si>
+    <t>Mountain Wolf espera que puedas encontrar a Maram en el Valle de Twinluna y entregarle una carta</t>
+  </si>
+  <si>
+    <t>La hija de Qasim, Rusen, está en el pueblo de Fleur. Ayuda a entregar la carta de Qasim a ella</t>
+  </si>
+  <si>
+    <t>Tahir te pide que encuentres 3 rosas para él. La leyenda cuenta que estas plantas solo florecen en algún lugar en el vasto desierto</t>
+  </si>
+  <si>
+    <t>Un borracho de Dunestorm te pide que lo ayudes a encontrar 5 barriles de licor para él</t>
+  </si>
+  <si>
+    <t>Golriz te pide que encuentres tres muestras de barro de aguas termales para ella</t>
+  </si>
+  <si>
+    <t>Koray te pide que encuentres dos muestras de plumas para ella. Qebui Keep en las Montañas Zagros debería tener algunas a la venta</t>
+  </si>
+  <si>
+    <t>Amar está buscando una Concha Estampada y una Concha de Tres Puntas. El pueblo de Agadir en el Valle de Twinluna debería tener algunas a la venta</t>
+  </si>
+  <si>
+    <t>Rajif está preparando el banquete perfecto y está buscando una pieza de Exquisita Carne de res, una pieza de Exquisito Cordero y una pieza de Exquisito Pollo</t>
+  </si>
+  <si>
+    <t>Dariush está preparando el banquete perfecto y está buscando una pieza de cada uno de los siguientes hongos: Champiñón Dorado, Boletus, Faloide y Tashashu</t>
+  </si>
+  <si>
+    <t>La Garza de Nieve espera que puedas enfrentarte a 3 manadas de Lobos Árticos</t>
+  </si>
+  <si>
+    <t>Yaseen espera que puedas repeler 3 manadas de centauros</t>
+  </si>
+  <si>
+    <t>Ormazd espera que puedas repeler 3 escuadrones de Bahar</t>
+  </si>
+  <si>
+    <t>Kourosh espera que puedas enfrentarte a 3 escuadrones de Aprendices de Cuchilla de Viento</t>
+  </si>
+  <si>
+    <t>El espadachín Nasir espera que puedas repeler a 3 Garuda</t>
+  </si>
+  <si>
+    <t>Amir espera que puedas enfrentarte a 3 escuadrones de trabajadores Ifrit</t>
+  </si>
+  <si>
+    <t>Sara, del pueblo de Fleur, espera que puedas derrotar a los Arnab que infestan los campos al norte del puesto avanzado</t>
+  </si>
+  <si>
+    <t>Informa a Sara que Arnab se ha ido</t>
+  </si>
+  <si>
+    <t>Latif espera que puedas investigar el campamento de los Grunts</t>
+  </si>
+  <si>
+    <t>Encuentra a Maimun un trozo de carne de Ifrit sellada. Prueba en las tiendas Fleur y Mireton o Diresprings</t>
+  </si>
+  <si>
+    <t>Vuelve con Latif y dile que los Grunts se han ido</t>
+  </si>
+  <si>
+    <t>Tanar te pide que encuentres a Seyah, su hermana desaparecida, en el Bazar de la Campana del Camello</t>
+  </si>
+  <si>
+    <t>Un boticario te pide que encuentres 3 Orquídeas de West Docana para ella. Pueden ser recolectadas en el Desierto de West Docana</t>
+  </si>
+  <si>
+    <t>Marwa suplica que visites una cueva cercana y la ayudes a recuperar sus objetos perdidos. Pero ten cuidado, hay Yetis acechando dentro</t>
+  </si>
+  <si>
+    <t>Lleva a Threnody de regreso al Pueblo de Piedra Caliza, en el extremo este de la ventisca de nieve</t>
+  </si>
+  <si>
+    <t>Recoge tres muestras de Madreselva en los bosques al norte y oeste del pueblo</t>
+  </si>
+  <si>
+    <t>Verifica con Threnody ahora que se ha recuperado. Parece que se fue al río al oeste de Limestone Village, cerca de Herb Valley</t>
+  </si>
+  <si>
+    <t>Algo extraño ha sucedido en el Pueblo de Piedra Caliza. Ve allí rápidamente e investiga</t>
+  </si>
+  <si>
+    <t>Encuentra la entrada a la cordillera de Karakorum. Intenta buscar cerca del puente roto al noroeste de la aldea Misty</t>
+  </si>
+  <si>
+    <t>Deja las Montañas Karakorum</t>
+  </si>
+  <si>
+    <t>¿Dónde puedo aprender más sobre Threnody?</t>
+  </si>
+  <si>
+    <t>Entra en la cabaña del cazador</t>
+  </si>
+  <si>
+    <t>Encuentra al técnico que mencionó Threnody</t>
+  </si>
+  <si>
+    <t>El técnico no está en casa. Debería estar cerca - sigue buscándolo</t>
+  </si>
+  <si>
+    <t>Vuelve con el técnico a su residencia</t>
+  </si>
+  <si>
+    <t>Despídete del técnico y pregúntale a Threnody qué quiere que él haga</t>
+  </si>
+  <si>
+    <t>El mendigo te habla sobre un secreto oculto en las ruinas del desierto. Susurra solo dos palabras: Ciudad Infinita</t>
+  </si>
+  <si>
+    <t>Busca al mendigo para entender la causa</t>
+  </si>
+  <si>
+    <t>El viejo mendigo espera que puedas traerle un pastel de rosas</t>
+  </si>
+  <si>
+    <t>El mendigo susurra otra palabra secreta: T a s h a</t>
+  </si>
+  <si>
+    <t>Explora la Ciudad Infinita con tu grupo de expedición de tres personas</t>
+  </si>
+  <si>
+    <t>Adiós, viejo amigo</t>
+  </si>
+  <si>
+    <t>Anhelo</t>
+  </si>
+  <si>
+    <t>El Libro del Aventurero</t>
+  </si>
+  <si>
+    <t>Las Rosas Doradas</t>
+  </si>
+  <si>
+    <t>Demanda ebria</t>
+  </si>
+  <si>
+    <t>Mascarilla de barro</t>
+  </si>
+  <si>
+    <t>Plumaje valiente</t>
+  </si>
+  <si>
+    <t>Él ve conchas marinas</t>
+  </si>
+  <si>
+    <t>La comida perfecta</t>
+  </si>
+  <si>
+    <t>Locura de setas</t>
+  </si>
+  <si>
+    <t>Derrota a los lobos árticos</t>
+  </si>
+  <si>
+    <t>Derrota a los Centauros</t>
+  </si>
+  <si>
+    <t>Derrota a Bahar</t>
+  </si>
+  <si>
+    <t>Derrota a los aprendices de Windblade</t>
+  </si>
+  <si>
+    <t>Derrota al Garuda</t>
+  </si>
+  <si>
+    <t>Derrota al Ifrit</t>
+  </si>
+  <si>
+    <t>Control de plagas</t>
+  </si>
+  <si>
+    <t>Descontento</t>
+  </si>
+  <si>
+    <t>Búsqueda en el desierto</t>
+  </si>
+  <si>
+    <t>Botica del Desierto</t>
+  </si>
+  <si>
+    <t>Pueblo de piedra caliza</t>
+  </si>
+  <si>
+    <t>Madreselva</t>
+  </si>
+  <si>
+    <t>Revisión de la elegía</t>
+  </si>
+  <si>
+    <t>Volver al pueblo de Limestone</t>
+  </si>
+  <si>
+    <t>Las Montañas Karakorum</t>
+  </si>
+  <si>
+    <t>Sueños derretidos</t>
+  </si>
+  <si>
+    <t>¿Ciudad sin fin?</t>
+  </si>
+  <si>
+    <t>Causa y Efecto</t>
+  </si>
+  <si>
+    <t>Pastel de rosas</t>
+  </si>
+  <si>
+    <t>¿Tasha?</t>
+  </si>
+  <si>
+    <t>Exploración infinita</t>
+  </si>
+  <si>
+    <t>0#Encuentra a Rusen#1##沙盒黑崖花卉乡:-1163,-1504:250|花卉乡瑞拉</t>
+  </si>
+  <si>
+    <t>4#Recuperar 5 vasijas de licor#5#烈酒#</t>
+  </si>
+  <si>
+    <t>0#Investigar el campamento de los Grunts#1##大雪山:2029,12375:250|能言人语找到咕噜营地.
+0#Investigar el campamento de los Grunts#1##大雪山:2029,12375:250|能言人语找到咕噜营地</t>
+  </si>
+  <si>
+    <t>0#Volver a Limestone Village#1##大雪山:11450,3573:0|trigger:青石村大妖战斗.
+0#Volver a Limestone Village#1##大雪山:11450,3573:0|trigger:青石村大妖战斗.</t>
+  </si>
+  <si>
+    <t>0#Encuentra al técnico#1|trigger:选择灰雪北边河谷去东侧找机械师</t>
+  </si>
+  <si>
+    <t>0#Encuentra al Técnico#1|trigger:选择灰雪北边河谷北边机械师战斗触发</t>
+  </si>
+  <si>
+    <t>0#Volver a casa del técnico#1|北边河谷等待灰雪</t>
+  </si>
+  <si>
+    <t>0#Recoger Madreselva ACHEST:青石村找回药草1
+0#Recoger Madreselva B#1|CHEST:青石村找回药草2
+0#Recoger Madreselva C#1|CHEST:青石村找回药草3</t>
+  </si>
+  <si>
+    <t>0#Sigue a Threnody#1##大雪山:7221,3048:0|苏醒灰雪2.
+0#Sigue a Threnody#1##大雪山:7221,3048:0|苏醒灰雪2</t>
+  </si>
+  <si>
+    <t>0#Derrota al Yeti#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞.
+0#Derrota al Yeti#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞</t>
+  </si>
+  <si>
+    <t>3#Derrota 10 manadas de Lobos Árticos#10#雪狼#</t>
   </si>
 </sst>
 </file>
@@ -838,7 +851,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -846,26 +859,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -876,11 +874,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,7 +895,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1198,17 +1193,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" style="5" customWidth="1"/>
-    <col min="4" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="5" customWidth="1"/>
+    <col min="3" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60">
@@ -1247,8 +1239,8 @@
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>139</v>
+      <c r="C2" t="s">
+        <v>210</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1256,14 +1248,14 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>171</v>
+      <c r="G2" t="s">
+        <v>169</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>211</v>
+      <c r="I2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="90">
@@ -1273,8 +1265,8 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>140</v>
+      <c r="C3" t="s">
+        <v>211</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -1282,14 +1274,14 @@
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>172</v>
+      <c r="G3" t="s">
+        <v>170</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>212</v>
+      <c r="I3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="90">
@@ -1299,8 +1291,8 @@
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>141</v>
+      <c r="C4" t="s">
+        <v>212</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -1308,14 +1300,14 @@
       <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>173</v>
+      <c r="G4" t="s">
+        <v>171</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>213</v>
+      <c r="I4" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="105">
@@ -1325,8 +1317,8 @@
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>142</v>
+      <c r="C5" t="s">
+        <v>213</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1334,14 +1326,14 @@
       <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>174</v>
+      <c r="G5" t="s">
+        <v>172</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>214</v>
+      <c r="I5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
@@ -1351,8 +1343,8 @@
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>143</v>
+      <c r="C6" t="s">
+        <v>214</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1360,14 +1352,14 @@
       <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>175</v>
+      <c r="G6" t="s">
+        <v>173</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>215</v>
+      <c r="I6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60">
@@ -1377,8 +1369,8 @@
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>144</v>
+      <c r="C7" t="s">
+        <v>215</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -1386,14 +1378,14 @@
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>176</v>
+      <c r="G7" t="s">
+        <v>174</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>216</v>
+      <c r="I7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105">
@@ -1403,8 +1395,8 @@
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>145</v>
+      <c r="C8" t="s">
+        <v>216</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
@@ -1412,14 +1404,14 @@
       <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>177</v>
+      <c r="G8" t="s">
+        <v>175</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>217</v>
+      <c r="I8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="240">
@@ -1429,8 +1421,8 @@
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>146</v>
+      <c r="C9" t="s">
+        <v>217</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
@@ -1438,14 +1430,14 @@
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>178</v>
+      <c r="G9" t="s">
+        <v>176</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>218</v>
+      <c r="I9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="180">
@@ -1455,8 +1447,8 @@
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>147</v>
+      <c r="C10" t="s">
+        <v>218</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -1464,14 +1456,14 @@
       <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>179</v>
+      <c r="G10" t="s">
+        <v>177</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>219</v>
+      <c r="I10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="240">
@@ -1481,8 +1473,8 @@
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>148</v>
+      <c r="C11" t="s">
+        <v>219</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -1490,14 +1482,14 @@
       <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>180</v>
+      <c r="G11" t="s">
+        <v>178</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>220</v>
+      <c r="I11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45">
@@ -1507,8 +1499,8 @@
       <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>149</v>
+      <c r="C12" t="s">
+        <v>220</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -1516,14 +1508,14 @@
       <c r="F12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>181</v>
+      <c r="G12" t="s">
+        <v>179</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>221</v>
+      <c r="I12" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45">
@@ -1533,8 +1525,8 @@
       <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>150</v>
+      <c r="C13" t="s">
+        <v>221</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -1542,14 +1534,14 @@
       <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>182</v>
+      <c r="G13" t="s">
+        <v>180</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>222</v>
+      <c r="I13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="60">
@@ -1559,8 +1551,8 @@
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>151</v>
+      <c r="C14" t="s">
+        <v>222</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -1568,14 +1560,14 @@
       <c r="F14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>183</v>
+      <c r="G14" t="s">
+        <v>181</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>223</v>
+      <c r="I14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
@@ -1585,8 +1577,8 @@
       <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>152</v>
+      <c r="C15" t="s">
+        <v>223</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -1594,14 +1586,14 @@
       <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>184</v>
+      <c r="G15" t="s">
+        <v>182</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>224</v>
+      <c r="I15" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45">
@@ -1611,8 +1603,8 @@
       <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>153</v>
+      <c r="C16" t="s">
+        <v>224</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
@@ -1620,14 +1612,14 @@
       <c r="F16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>185</v>
+      <c r="G16" t="s">
+        <v>183</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>225</v>
+      <c r="I16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="120">
@@ -1637,8 +1629,8 @@
       <c r="B17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>154</v>
+      <c r="C17" t="s">
+        <v>225</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -1646,14 +1638,14 @@
       <c r="F17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>186</v>
+      <c r="G17" t="s">
+        <v>184</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="90">
@@ -1663,8 +1655,8 @@
       <c r="B18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>155</v>
+      <c r="C18" t="s">
+        <v>226</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -1672,14 +1664,14 @@
       <c r="F18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>187</v>
+      <c r="G18" t="s">
+        <v>185</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>227</v>
+      <c r="I18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="60">
@@ -1689,8 +1681,8 @@
       <c r="B19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>155</v>
+      <c r="C19" t="s">
+        <v>226</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -1698,14 +1690,14 @@
       <c r="F19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>188</v>
+      <c r="G19" t="s">
+        <v>186</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>228</v>
+      <c r="I19" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90">
@@ -1715,8 +1707,8 @@
       <c r="B20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>156</v>
+      <c r="C20" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -1724,14 +1716,14 @@
       <c r="F20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>189</v>
+      <c r="G20" t="s">
+        <v>187</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>229</v>
+      <c r="I20" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105">
@@ -1741,8 +1733,8 @@
       <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>156</v>
+      <c r="C21" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
@@ -1750,14 +1742,14 @@
       <c r="F21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>190</v>
+      <c r="G21" t="s">
+        <v>188</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>230</v>
+      <c r="I21" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45">
@@ -1767,8 +1759,8 @@
       <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>156</v>
+      <c r="C22" t="s">
+        <v>227</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
@@ -1776,14 +1768,14 @@
       <c r="F22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>191</v>
+      <c r="G22" t="s">
+        <v>189</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>231</v>
+      <c r="I22" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90">
@@ -1793,20 +1785,20 @@
       <c r="B23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>157</v>
+      <c r="C23" t="s">
+        <v>228</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>192</v>
+      <c r="G23" t="s">
+        <v>190</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>232</v>
+      <c r="I23" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="120">
@@ -1816,20 +1808,20 @@
       <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>158</v>
+      <c r="C24" t="s">
+        <v>229</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>193</v>
+      <c r="G24" t="s">
+        <v>191</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>233</v>
+      <c r="I24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105">
@@ -1839,20 +1831,20 @@
       <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>80</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>194</v>
+      <c r="G25" t="s">
+        <v>192</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>234</v>
+      <c r="I25" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="90">
@@ -1862,20 +1854,20 @@
       <c r="B26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>159</v>
+      <c r="C26" t="s">
+        <v>230</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>195</v>
+      <c r="G26" t="s">
+        <v>193</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>235</v>
+      <c r="I26" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="180">
@@ -1885,8 +1877,8 @@
       <c r="B27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>160</v>
+      <c r="C27" t="s">
+        <v>231</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
@@ -1894,14 +1886,14 @@
       <c r="F27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>196</v>
+      <c r="G27" t="s">
+        <v>194</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="150">
@@ -1911,8 +1903,8 @@
       <c r="B28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>161</v>
+      <c r="C28" t="s">
+        <v>232</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
@@ -1920,14 +1912,14 @@
       <c r="F28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>197</v>
+      <c r="G28" t="s">
+        <v>195</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>237</v>
+      <c r="I28" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90">
@@ -1937,8 +1929,8 @@
       <c r="B29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>162</v>
+      <c r="C29" t="s">
+        <v>233</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1946,14 +1938,14 @@
       <c r="F29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>198</v>
+      <c r="G29" t="s">
+        <v>196</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>238</v>
+      <c r="I29" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105">
@@ -1963,8 +1955,8 @@
       <c r="B30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>163</v>
+      <c r="C30" t="s">
+        <v>234</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
@@ -1972,14 +1964,14 @@
       <c r="F30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>199</v>
+      <c r="G30" t="s">
+        <v>197</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>239</v>
+      <c r="I30" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30">
@@ -1989,8 +1981,8 @@
       <c r="B31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>164</v>
+      <c r="C31" t="s">
+        <v>198</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1998,14 +1990,14 @@
       <c r="F31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>164</v>
+      <c r="G31" t="s">
+        <v>198</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>240</v>
+      <c r="I31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="60">
@@ -2015,8 +2007,8 @@
       <c r="B32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>165</v>
+      <c r="C32" t="s">
+        <v>235</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
@@ -2024,14 +2016,14 @@
       <c r="F32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>200</v>
+      <c r="G32" t="s">
+        <v>199</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>241</v>
+      <c r="I32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30">
@@ -2041,8 +2033,8 @@
       <c r="B33" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>165</v>
+      <c r="C33" t="s">
+        <v>235</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
@@ -2050,14 +2042,14 @@
       <c r="F33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>201</v>
+      <c r="G33" t="s">
+        <v>200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>242</v>
+      <c r="I33" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="90">
@@ -2067,8 +2059,8 @@
       <c r="B34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>165</v>
+      <c r="C34" t="s">
+        <v>235</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
@@ -2076,14 +2068,14 @@
       <c r="F34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>202</v>
+      <c r="G34" t="s">
+        <v>201</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>243</v>
+      <c r="I34" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="90">
@@ -2093,8 +2085,8 @@
       <c r="B35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>165</v>
+      <c r="C35" t="s">
+        <v>235</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
@@ -2102,14 +2094,14 @@
       <c r="F35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>203</v>
+      <c r="G35" t="s">
+        <v>202</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>244</v>
+      <c r="I35" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="60">
@@ -2119,8 +2111,8 @@
       <c r="B36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>165</v>
+      <c r="C36" t="s">
+        <v>235</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -2128,14 +2120,14 @@
       <c r="F36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>204</v>
+      <c r="G36" t="s">
+        <v>203</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>245</v>
+      <c r="I36" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="60">
@@ -2145,8 +2137,8 @@
       <c r="B37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>165</v>
+      <c r="C37" t="s">
+        <v>235</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -2154,14 +2146,14 @@
       <c r="F37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>205</v>
+      <c r="G37" t="s">
+        <v>204</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>246</v>
+      <c r="I37" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90">
@@ -2171,8 +2163,8 @@
       <c r="B38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>166</v>
+      <c r="C38" t="s">
+        <v>236</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
@@ -2180,14 +2172,14 @@
       <c r="F38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>206</v>
+      <c r="G38" t="s">
+        <v>205</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>247</v>
+      <c r="I38" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="75">
@@ -2197,8 +2189,8 @@
       <c r="B39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>167</v>
+      <c r="C39" t="s">
+        <v>237</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
@@ -2206,14 +2198,14 @@
       <c r="F39" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>207</v>
+      <c r="G39" t="s">
+        <v>206</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>248</v>
+      <c r="I39" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="60">
@@ -2223,8 +2215,8 @@
       <c r="B40" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>168</v>
+      <c r="C40" t="s">
+        <v>238</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
@@ -2232,14 +2224,14 @@
       <c r="F40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>208</v>
+      <c r="G40" t="s">
+        <v>207</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>249</v>
+      <c r="I40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="90">
@@ -2249,8 +2241,8 @@
       <c r="B41" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>169</v>
+      <c r="C41" t="s">
+        <v>239</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
@@ -2258,14 +2250,14 @@
       <c r="F41" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>209</v>
+      <c r="G41" t="s">
+        <v>208</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>250</v>
+      <c r="I41" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="90">
@@ -2275,8 +2267,8 @@
       <c r="B42" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>170</v>
+      <c r="C42" t="s">
+        <v>240</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
@@ -2284,14 +2276,14 @@
       <c r="F42" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>210</v>
+      <c r="G42" t="s">
+        <v>209</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>251</v>
+      <c r="I42" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6315F1-5F8A-4B5C-B09A-8DFFA3D081E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279B5C2C-A2B3-4FBF-B575-0FEEFA7AE1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -459,356 +459,343 @@
     <t>0#和三人探险小队前往无尽城探索#1##大沙漠:285,7337:0</t>
   </si>
   <si>
-    <t>0#Encuentra a Jalal#1##沙盒双月山谷:1804,-973:250|长睚</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Maram#1##沙盒双月山谷:1792,-5241:250|双月山谷曼玡</t>
-  </si>
-  <si>
-    <t>4#Escoge 3 rosas y dáselas a Tahir#3#玫瑰花#</t>
-  </si>
-  <si>
-    <t>4#Recuperar 5 trozos de barro de aguas termales#5#温泉の泥#</t>
-  </si>
-  <si>
-    <t>4#Recupera 2 plumas para Koray#2#羽毛#</t>
-  </si>
-  <si>
-    <t>4#Recupera una Concha con Patrón para Amar#1#花纹贝壳#沙盒双月山谷:-2017,-268:100|LUGAR:浅溪镇
-4#Recupera una Concha de Tres Puntos para Amar#1#三褶贝壳#沙盒双月山谷:-2017,-268:100|LUGAR:浅溪镇</t>
-  </si>
-  <si>
-    <t>4#Recupera Exquisita Carne de Res para Rajif#1#精致牛肉#
-4#Recupera Exquisito Pollo para Rajif#1#精致鸡肉#
-4#Recupera Exquisito Cordero para Rajif#1#精致羊肉#</t>
-  </si>
-  <si>
-    <t>4#Recoge 3 Champiñones Dorados para Dariush#3#金针菇#
-4#Recoge 3 Boletus para Darius#3#牛肝菌#
-4#Recoge 3 Champiñones Tashashu para Dariush#3#茶树菇#
-4#Recoge 3 Stinkhorns para Dariush#3#竹荪#</t>
-  </si>
-  <si>
-    <t>3#Derrota 3 manadas de centauros#3#人马战士#</t>
-  </si>
-  <si>
-    <t>3#Derrota 20 Bahar#20#骨刺鱼人#</t>
-  </si>
-  <si>
-    <t>3#Derrota a 5 aprendices de Windblade#5#风刃学徒#</t>
-  </si>
-  <si>
-    <t>3#Derrota a 3 Garuda#3#鹰身人#</t>
-  </si>
-  <si>
-    <t>3#Derrota a 10 Trabajadores de Ifrit#10#火魔苦工#
-3#Derrota a 10 Esclavos de Ifrit#10#火魔奴隶#</t>
-  </si>
-  <si>
-    <t>0#Derrota a Arnab#1|爱美之心兔犬</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Sara#1</t>
-  </si>
-  <si>
-    <t>4#Recupera el Buey Asado Ifrit para Maimun#1#魔焰火烧牛肉#</t>
-  </si>
-  <si>
-    <t>0#Encontrar a Latif#1</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Seyah#1##大沙漠:-1063,-4597:250|大沙漠莎莉雅</t>
-  </si>
-  <si>
-    <t>4#Recoger 3 Orquídeas West Docana#3#西多喀那兰#</t>
-  </si>
-  <si>
-    <t>0#Lleva a Threnody de vuelta a Limestone Village#1##大雪山:11590,2834:0|trigger:青石村村子门口</t>
-  </si>
-  <si>
-    <t>0#Ir a las Montañas Karakorum#1##大雪山:8405,17175:0|trigger:阿拉尔山传送</t>
-  </si>
-  <si>
-    <t>0#Deja las Montañas Karakorum#1. Traducción:</t>
-  </si>
-  <si>
-    <t>0#Encuentra Threnody#1</t>
-  </si>
-  <si>
-    <t>0#Cabaña del cazador#1</t>
-  </si>
-  <si>
-    <t>0#Despídete del Técnico#1</t>
-  </si>
-  <si>
-    <t>0#Investigar las ruinas en el desierto#1##大沙漠:638,7259:250</t>
-  </si>
-  <si>
-    <t>0#Encuentra al mendigo#1##大沙漠:4267,4329:0|大沙漠乞丐</t>
-  </si>
-  <si>
-    <t>4#Dale un pastel de rosas al mendigo#1#玫瑰花饼#</t>
-  </si>
-  <si>
-    <t>Vuelve a las ruinas en el desierto y encuentra a Tasha</t>
-  </si>
-  <si>
-    <t>0#Explora la Ciudad Infinita#1##大沙漠:285,7337:0</t>
-  </si>
-  <si>
-    <t>Jabbar espera que puedas ayudar a encontrar a Jalal y entregarle una carta</t>
-  </si>
-  <si>
-    <t>Mountain Wolf espera que puedas encontrar a Maram en el Valle de Twinluna y entregarle una carta</t>
-  </si>
-  <si>
-    <t>La hija de Qasim, Rusen, está en el pueblo de Fleur. Ayuda a entregar la carta de Qasim a ella</t>
-  </si>
-  <si>
-    <t>Tahir te pide que encuentres 3 rosas para él. La leyenda cuenta que estas plantas solo florecen en algún lugar en el vasto desierto</t>
-  </si>
-  <si>
-    <t>Un borracho de Dunestorm te pide que lo ayudes a encontrar 5 barriles de licor para él</t>
-  </si>
-  <si>
-    <t>Golriz te pide que encuentres tres muestras de barro de aguas termales para ella</t>
-  </si>
-  <si>
-    <t>Koray te pide que encuentres dos muestras de plumas para ella. Qebui Keep en las Montañas Zagros debería tener algunas a la venta</t>
-  </si>
-  <si>
-    <t>Amar está buscando una Concha Estampada y una Concha de Tres Puntas. El pueblo de Agadir en el Valle de Twinluna debería tener algunas a la venta</t>
-  </si>
-  <si>
-    <t>Rajif está preparando el banquete perfecto y está buscando una pieza de Exquisita Carne de res, una pieza de Exquisito Cordero y una pieza de Exquisito Pollo</t>
-  </si>
-  <si>
-    <t>Dariush está preparando el banquete perfecto y está buscando una pieza de cada uno de los siguientes hongos: Champiñón Dorado, Boletus, Faloide y Tashashu</t>
-  </si>
-  <si>
-    <t>La Garza de Nieve espera que puedas enfrentarte a 3 manadas de Lobos Árticos</t>
-  </si>
-  <si>
-    <t>Yaseen espera que puedas repeler 3 manadas de centauros</t>
-  </si>
-  <si>
-    <t>Ormazd espera que puedas repeler 3 escuadrones de Bahar</t>
-  </si>
-  <si>
-    <t>Kourosh espera que puedas enfrentarte a 3 escuadrones de Aprendices de Cuchilla de Viento</t>
-  </si>
-  <si>
-    <t>El espadachín Nasir espera que puedas repeler a 3 Garuda</t>
-  </si>
-  <si>
-    <t>Amir espera que puedas enfrentarte a 3 escuadrones de trabajadores Ifrit</t>
-  </si>
-  <si>
-    <t>Sara, del pueblo de Fleur, espera que puedas derrotar a los Arnab que infestan los campos al norte del puesto avanzado</t>
-  </si>
-  <si>
-    <t>Informa a Sara que Arnab se ha ido</t>
-  </si>
-  <si>
-    <t>Latif espera que puedas investigar el campamento de los Grunts</t>
-  </si>
-  <si>
-    <t>Encuentra a Maimun un trozo de carne de Ifrit sellada. Prueba en las tiendas Fleur y Mireton o Diresprings</t>
-  </si>
-  <si>
-    <t>Vuelve con Latif y dile que los Grunts se han ido</t>
-  </si>
-  <si>
-    <t>Tanar te pide que encuentres a Seyah, su hermana desaparecida, en el Bazar de la Campana del Camello</t>
-  </si>
-  <si>
-    <t>Un boticario te pide que encuentres 3 Orquídeas de West Docana para ella. Pueden ser recolectadas en el Desierto de West Docana</t>
-  </si>
-  <si>
-    <t>Marwa suplica que visites una cueva cercana y la ayudes a recuperar sus objetos perdidos. Pero ten cuidado, hay Yetis acechando dentro</t>
-  </si>
-  <si>
-    <t>Lleva a Threnody de regreso al Pueblo de Piedra Caliza, en el extremo este de la ventisca de nieve</t>
-  </si>
-  <si>
-    <t>Recoge tres muestras de Madreselva en los bosques al norte y oeste del pueblo</t>
-  </si>
-  <si>
-    <t>Verifica con Threnody ahora que se ha recuperado. Parece que se fue al río al oeste de Limestone Village, cerca de Herb Valley</t>
-  </si>
-  <si>
-    <t>Algo extraño ha sucedido en el Pueblo de Piedra Caliza. Ve allí rápidamente e investiga</t>
-  </si>
-  <si>
-    <t>Encuentra la entrada a la cordillera de Karakorum. Intenta buscar cerca del puente roto al noroeste de la aldea Misty</t>
-  </si>
-  <si>
-    <t>Deja las Montañas Karakorum</t>
-  </si>
-  <si>
-    <t>¿Dónde puedo aprender más sobre Threnody?</t>
-  </si>
-  <si>
-    <t>Entra en la cabaña del cazador</t>
-  </si>
-  <si>
-    <t>Encuentra al técnico que mencionó Threnody</t>
-  </si>
-  <si>
-    <t>El técnico no está en casa. Debería estar cerca - sigue buscándolo</t>
-  </si>
-  <si>
-    <t>Vuelve con el técnico a su residencia</t>
-  </si>
-  <si>
-    <t>Despídete del técnico y pregúntale a Threnody qué quiere que él haga</t>
-  </si>
-  <si>
-    <t>El mendigo te habla sobre un secreto oculto en las ruinas del desierto. Susurra solo dos palabras: Ciudad Infinita</t>
-  </si>
-  <si>
-    <t>Busca al mendigo para entender la causa</t>
-  </si>
-  <si>
-    <t>El viejo mendigo espera que puedas traerle un pastel de rosas</t>
-  </si>
-  <si>
-    <t>El mendigo susurra otra palabra secreta: T a s h a</t>
-  </si>
-  <si>
-    <t>Explora la Ciudad Infinita con tu grupo de expedición de tres personas</t>
-  </si>
-  <si>
-    <t>Adiós, viejo amigo</t>
-  </si>
-  <si>
-    <t>Anhelo</t>
-  </si>
-  <si>
-    <t>El Libro del Aventurero</t>
-  </si>
-  <si>
-    <t>Las Rosas Doradas</t>
-  </si>
-  <si>
-    <t>Demanda ebria</t>
-  </si>
-  <si>
-    <t>Mascarilla de barro</t>
-  </si>
-  <si>
-    <t>Plumaje valiente</t>
-  </si>
-  <si>
-    <t>Él ve conchas marinas</t>
-  </si>
-  <si>
-    <t>La comida perfecta</t>
-  </si>
-  <si>
-    <t>Locura de setas</t>
-  </si>
-  <si>
-    <t>Derrota a los lobos árticos</t>
-  </si>
-  <si>
-    <t>Derrota a los Centauros</t>
-  </si>
-  <si>
-    <t>Derrota a Bahar</t>
-  </si>
-  <si>
-    <t>Derrota a los aprendices de Windblade</t>
-  </si>
-  <si>
-    <t>Derrota al Garuda</t>
-  </si>
-  <si>
-    <t>Derrota al Ifrit</t>
-  </si>
-  <si>
-    <t>Control de plagas</t>
-  </si>
-  <si>
-    <t>Descontento</t>
-  </si>
-  <si>
-    <t>Búsqueda en el desierto</t>
-  </si>
-  <si>
-    <t>Botica del Desierto</t>
-  </si>
-  <si>
-    <t>Pueblo de piedra caliza</t>
-  </si>
-  <si>
-    <t>Madreselva</t>
-  </si>
-  <si>
-    <t>Revisión de la elegía</t>
-  </si>
-  <si>
-    <t>Volver al pueblo de Limestone</t>
-  </si>
-  <si>
-    <t>Las Montañas Karakorum</t>
-  </si>
-  <si>
-    <t>Sueños derretidos</t>
-  </si>
-  <si>
-    <t>¿Ciudad sin fin?</t>
-  </si>
-  <si>
-    <t>Causa y Efecto</t>
-  </si>
-  <si>
-    <t>Pastel de rosas</t>
-  </si>
-  <si>
-    <t>¿Tasha?</t>
-  </si>
-  <si>
-    <t>Exploración infinita</t>
-  </si>
-  <si>
-    <t>0#Encuentra a Rusen#1##沙盒黑崖花卉乡:-1163,-1504:250|花卉乡瑞拉</t>
-  </si>
-  <si>
-    <t>4#Recuperar 5 vasijas de licor#5#烈酒#</t>
-  </si>
-  <si>
-    <t>0#Investigar el campamento de los Grunts#1##大雪山:2029,12375:250|能言人语找到咕噜营地.
-0#Investigar el campamento de los Grunts#1##大雪山:2029,12375:250|能言人语找到咕噜营地</t>
-  </si>
-  <si>
-    <t>0#Volver a Limestone Village#1##大雪山:11450,3573:0|trigger:青石村大妖战斗.
-0#Volver a Limestone Village#1##大雪山:11450,3573:0|trigger:青石村大妖战斗.</t>
-  </si>
-  <si>
-    <t>0#Encuentra al técnico#1|trigger:选择灰雪北边河谷去东侧找机械师</t>
-  </si>
-  <si>
-    <t>0#Encuentra al Técnico#1|trigger:选择灰雪北边河谷北边机械师战斗触发</t>
-  </si>
-  <si>
-    <t>0#Volver a casa del técnico#1|北边河谷等待灰雪</t>
-  </si>
-  <si>
-    <t>0#Recoger Madreselva ACHEST:青石村找回药草1
-0#Recoger Madreselva B#1|CHEST:青石村找回药草2
-0#Recoger Madreselva C#1|CHEST:青石村找回药草3</t>
-  </si>
-  <si>
-    <t>0#Sigue a Threnody#1##大雪山:7221,3048:0|苏醒灰雪2.
-0#Sigue a Threnody#1##大雪山:7221,3048:0|苏醒灰雪2</t>
-  </si>
-  <si>
-    <t>0#Derrota al Yeti#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞.
-0#Derrota al Yeti#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞</t>
-  </si>
-  <si>
-    <t>3#Derrota 10 manadas de Lobos Árticos#10#雪狼#</t>
+    <t>Adeus, velho amigo</t>
+  </si>
+  <si>
+    <t>Anseio</t>
+  </si>
+  <si>
+    <t>O livro do aventureiro</t>
+  </si>
+  <si>
+    <t>As rosas douradas</t>
+  </si>
+  <si>
+    <t>processo de bêbado</t>
+  </si>
+  <si>
+    <t>Máscara de lama</t>
+  </si>
+  <si>
+    <t>plumagem corajosa</t>
+  </si>
+  <si>
+    <t>Ele vê conchas</t>
+  </si>
+  <si>
+    <t>A refeição perfeita</t>
+  </si>
+  <si>
+    <t>loucura de cogumelo</t>
+  </si>
+  <si>
+    <t>Derrote os lobos árticos</t>
+  </si>
+  <si>
+    <t>Derrote os Centauros</t>
+  </si>
+  <si>
+    <t>Derrote Bahar</t>
+  </si>
+  <si>
+    <t>Derrote os aprendizes de Windblade</t>
+  </si>
+  <si>
+    <t>Derrote o Garuda</t>
+  </si>
+  <si>
+    <t>Derrote o Ifrit</t>
+  </si>
+  <si>
+    <t>Controle de pragas</t>
+  </si>
+  <si>
+    <t>Descontentamento</t>
+  </si>
+  <si>
+    <t>Procure no deserto</t>
+  </si>
+  <si>
+    <t>Boticário do Deserto</t>
+  </si>
+  <si>
+    <t>vila de calcário</t>
+  </si>
+  <si>
+    <t>Madressilva</t>
+  </si>
+  <si>
+    <t>Revisão da elegia</t>
+  </si>
+  <si>
+    <t>Voltar para a cidade de Limestone</t>
+  </si>
+  <si>
+    <t>Montanhas Karakorum</t>
+  </si>
+  <si>
+    <t>Deixe as montanhas Karakorum</t>
+  </si>
+  <si>
+    <t>sonhos derretidos</t>
+  </si>
+  <si>
+    <t>Cidade sem fim?</t>
+  </si>
+  <si>
+    <t>Causa e efeito</t>
+  </si>
+  <si>
+    <t>bolo de rosa</t>
+  </si>
+  <si>
+    <t>Tasha?</t>
+  </si>
+  <si>
+    <t>Exploração infinita</t>
+  </si>
+  <si>
+    <t>Jabbar espera que você possa ajudar a encontrar Jalal e entregar uma carta para ele.</t>
+  </si>
+  <si>
+    <t>Mountain Wolf espera que você encontre Maram no Vale Twinluna e entregue uma carta para ele.</t>
+  </si>
+  <si>
+    <t>A filha de Qasim, Rusen, está na aldeia de Fleur. Ajude a entregar a carta de Qasim para ela</t>
+  </si>
+  <si>
+    <t>Tahir pede que você encontre 3 rosas para ele. Diz a lenda que essas plantas só florescem em algum lugar do vasto deserto.</t>
+  </si>
+  <si>
+    <t>Um bêbado de Dunestorm pede que você o ajude a encontrar 5 barris de bebida para ele</t>
+  </si>
+  <si>
+    <t>Golriz pede que você encontre três amostras de lama termal para ela.</t>
+  </si>
+  <si>
+    <t>Koray pede que você encontre duas amostras de penas para ela. Qebui Keep nas montanhas Zagros deve ter alguns à venda</t>
+  </si>
+  <si>
+    <t>Amar está procurando uma concha padronizada e uma concha de três pontas. A cidade de Agadir, no Vale Twinluna, deverá ter alguns à venda</t>
+  </si>
+  <si>
+    <t>Rajif está preparando o banquete perfeito e está procurando um pedaço de Carne Requintada, um pedaço de Cordeiro Requintado e um pedaço de Frango Requintado</t>
+  </si>
+  <si>
+    <t>Dariush está preparando o banquete perfeito e procura um pedaço de cada um dos seguintes cogumelos: Cogumelo Dourado, Boletus, Falóide e Tashashu</t>
+  </si>
+  <si>
+    <t>A Garça-da-Neve espera que você consiga enfrentar 3 matilhas de Lobos Árticos</t>
+  </si>
+  <si>
+    <t>Yaseen espera que você consiga repelir 3 manadas de centauros</t>
+  </si>
+  <si>
+    <t>Ormazd espera que você consiga repelir 3 esquadrões Bahar</t>
+  </si>
+  <si>
+    <t>Kourosh espera que você possa enfrentar 3 esquadrões de Windblade Apprentices.</t>
+  </si>
+  <si>
+    <t>espadachim Nasir espera que você consiga repelir 3 Garuda</t>
+  </si>
+  <si>
+    <t>Amir espera que você possa enfrentar 3 esquadrões de trabalhadores Ifrit</t>
+  </si>
+  <si>
+    <t>Sara, da vila de Fleur, espera que você consiga derrotar os Arnab que infestam os campos ao norte do posto avançado.</t>
+  </si>
+  <si>
+    <t>Informe Sara que Arnab foi embora.</t>
+  </si>
+  <si>
+    <t>Latif espera que você possa investigar o acampamento dos Grunts.</t>
+  </si>
+  <si>
+    <t>Ele encontra para Maimun um pedaço de carne Ifrit selada. Experimente as lojas Fleur e Mireton ou Diresprings</t>
+  </si>
+  <si>
+    <t>Volte para Latif e diga a ele que os Grunts se foram.</t>
+  </si>
+  <si>
+    <t>Tanar pede que você encontre Seyah, sua irmã desaparecida, no Camel Bell Bazaar.</t>
+  </si>
+  <si>
+    <t>Um boticário pede que você encontre 3 orquídeas West Docana para ela. Pode ser coletado no Deserto de West Docana</t>
+  </si>
+  <si>
+    <t>Marwa implora que você visite uma caverna próxima e a ajude a recuperar seus itens perdidos. Mas tenha cuidado, há Yetis escondidos lá dentro</t>
+  </si>
+  <si>
+    <t>Leve Threnody de volta para Limestone Town, no extremo leste da nevasca.</t>
+  </si>
+  <si>
+    <t>Colete três amostras de madressilva nas florestas ao norte e oeste da cidade.</t>
+  </si>
+  <si>
+    <t>Verifique com Threnody agora que ele está recuperado. Parece ter desaguado no rio a oeste de Limestone Village, perto de Herb Valley.</t>
+  </si>
+  <si>
+    <t>Algo estranho aconteceu em Limestone Town. Vá lá rapidamente e investigue</t>
+  </si>
+  <si>
+    <t>Encontre a entrada para a cordilheira Karakorum. Tente pesquisar perto da ponte quebrada a noroeste de Misty Village.</t>
+  </si>
+  <si>
+    <t>Onde posso aprender mais sobre Threnody?</t>
+  </si>
+  <si>
+    <t>Entre na cabana do caçador</t>
+  </si>
+  <si>
+    <t>Encontre o técnico que Threnody mencionou</t>
+  </si>
+  <si>
+    <t>O técnico não está em casa. Deve estar perto - continue procurando</t>
+  </si>
+  <si>
+    <t>Retorno com o técnico para sua residência</t>
+  </si>
+  <si>
+    <t>Diga adeus ao técnico e pergunte a Threnody o que ele quer que ele faça</t>
+  </si>
+  <si>
+    <t>mendigo conta sobre um segredo escondido nas ruínas do deserto. Sussurre apenas duas palavras: Cidade Infinita</t>
+  </si>
+  <si>
+    <t>Procure o mendigo para entender a causa</t>
+  </si>
+  <si>
+    <t>O velho mendigo espera que você possa trazer um bolo de rosas para ele</t>
+  </si>
+  <si>
+    <t>O mendigo sussurra outra palavra secreta: T asha</t>
+  </si>
+  <si>
+    <t>Explore a Cidade Infinita com seu grupo de expedição de três pessoas</t>
+  </si>
+  <si>
+    <t>0#Encontre Jalal#1##沙盒双月山谷:1804,-973:250|长睚</t>
+  </si>
+  <si>
+    <t>0#Encontre Maram#1##沙盒双月山谷:1792,-5241:250|双月山谷曼玡</t>
+  </si>
+  <si>
+    <t>0#Encontre Rusen#1##沙盒黑崖花卉乡:-1163,-1504:250|花卉乡瑞拉</t>
+  </si>
+  <si>
+    <t>4#Escolha 3 rosas e dê para Tahir#3#玫瑰花#</t>
+  </si>
+  <si>
+    <t>4#Recupere 5 recipientes de bebida#5#烈酒#</t>
+  </si>
+  <si>
+    <t>4#Recupere 5 pedaços de lama de fontes termais#5#温泉の泥#</t>
+  </si>
+  <si>
+    <t>4#Recupere 2 penas para Koray#2#羽毛#</t>
+  </si>
+  <si>
+    <t>4#Recupere uma concha com padrão para amar#1#花纹贝壳#沙盒双月山谷:-2017,-268:100|LOCATION:浅溪镇 4#Recupere uma concha de três pontos para amar#1#三褶贝壳#沙盒双月山谷:-2017,-268:100|LUGAR:浅溪镇</t>
+  </si>
+  <si>
+    <t>4#Recupere carne requintada para Rajif#1#精致牛肉# 4#Recupere frango requintado para Rajif#1#精致鸡肉# 4#Recupere cordeiro requintado para Rajif#1#精致羊肉#</t>
+  </si>
+  <si>
+    <t>4#Colete 3 Cogumelos Dourados para Dariush#3#金针菇# 4#Colete 3 Boletus para Darius#3#牛肝菌# 4#Colete 3 Cogumelos Tashashu para Dariush#3#茶树菇# 4#Colete 3 Stinkhorns para Dariush#3 #竹荪#</t>
+  </si>
+  <si>
+    <t>3#Derrote 10 matilhas de Lobos Árticos#10#雪狼#</t>
+  </si>
+  <si>
+    <t>3#Derrote 3 rebanhos de centauros#3#人马战士#</t>
+  </si>
+  <si>
+    <t>3#Derrote 20 Bahar#20#骨刺鱼人#</t>
+  </si>
+  <si>
+    <t>3#Derrote 5 Aprendizes de Windblade#5#风刃学徒#</t>
+  </si>
+  <si>
+    <t>3#Derrote 3 Garuda#3#鹰身人#</t>
+  </si>
+  <si>
+    <t>3#Derrote 10 Trabalhadores Ifrit#10#火魔苦工#3#Derrote 10 Escravos Ifrit#10#火魔奴隶#</t>
+  </si>
+  <si>
+    <t>0#Derrote Arnab#1|爱美之心兔犬</t>
+  </si>
+  <si>
+    <t>0#Encontre Sara#1</t>
+  </si>
+  <si>
+    <t>0#Investigar o acampamento dos Grunts#1##大雪山:2029,12375:250|能言人语找到咕噜营地. 0#Investigar o acampamento dos Grunts#1##大雪山:2029,12375:250|能言人语找到咕噜营地</t>
+  </si>
+  <si>
+    <t>4#Recupere o Boi Assado Ifrit para Maimun#1#魔焰火烧牛肉#</t>
+  </si>
+  <si>
+    <t>0#Encontre Latif#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Seyah#1##大沙漠:-1063,-4597:250|大沙漠莎莉雅</t>
+  </si>
+  <si>
+    <t>4#Colete 3 orquídeas West Docana#3#西多喀那兰#</t>
+  </si>
+  <si>
+    <t>0#Derrote o Yeti#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞. 0#Derrote o Yeti#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞</t>
+  </si>
+  <si>
+    <t>0#Leve Threnody de volta para Limestone Village#1##大雪山:11590,2834:0|trigger:青石村村子门口</t>
+  </si>
+  <si>
+    <t>0#Colete Madressilva ACHEST:青石村找回药草1 0#Colete Madressilva B#1|CHEST:青石村找回药草2 0#Colete Madressilva C#1|CHEST:青石村找回药草3</t>
+  </si>
+  <si>
+    <t>0#Siga Threnody#1##大雪山:7221,3048:0|苏醒灰雪2. 0#Siga Threnody#1##大雪山:7221,3048:0|苏醒灰雪2</t>
+  </si>
+  <si>
+    <t>0#Retorne para Limestone Village#1##大雪山:11450,3573:0|trigger:青石村大妖战斗. 0#Retorne para Limestone Village#1##大雪山:11450,3573:0|trigger:青石村大妖战斗.</t>
+  </si>
+  <si>
+    <t>0#Vá para as montanhas Karakorum#1##大雪山:8405,17175:0|trigger:阿拉尔山传送</t>
+  </si>
+  <si>
+    <t>0#Deixe as montanhas Karakorum#1. Tradução:</t>
+  </si>
+  <si>
+    <t>0#Encontre Trenody#1</t>
+  </si>
+  <si>
+    <t>0#Cabana do Caçador#1</t>
+  </si>
+  <si>
+    <t>0#Encontre o técnico#1|gatilho:选择灰雪北边河谷去东侧找机械师</t>
+  </si>
+  <si>
+    <t>0#Encontre o Técnico#1|gatilho:选择灰雪北边河谷北边机械师战斗触发</t>
+  </si>
+  <si>
+    <t>0#Voltar para a casa do técnico#1|北边河谷等待灰雪</t>
+  </si>
+  <si>
+    <t>0#Diga adeus ao Técnico#1</t>
+  </si>
+  <si>
+    <t>0#Investigar as ruínas no deserto#1##大沙漠:638,7259:250</t>
+  </si>
+  <si>
+    <t>0#Encontre o mendigo#1##大沙漠:4267,4329:0|大沙漠乞丐</t>
+  </si>
+  <si>
+    <t>4#Dê um bolo de rosas ao mendigo#1#玫瑰花饼#</t>
+  </si>
+  <si>
+    <t>Volte para as ruínas no deserto e encontre Tasha</t>
+  </si>
+  <si>
+    <t>0#Explore a Cidade Infinita#1##大沙漠:285,7337:0</t>
   </si>
 </sst>
 </file>
@@ -895,7 +882,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1193,14 +1180,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="146.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="198.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60">
@@ -1240,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1249,13 +1240,13 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="90">
@@ -1266,7 +1257,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
@@ -1275,13 +1266,13 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="90">
@@ -1292,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
@@ -1301,13 +1292,13 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="105">
@@ -1318,7 +1309,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1327,13 +1318,13 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
@@ -1344,7 +1335,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1353,13 +1344,13 @@
         <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60">
@@ -1370,7 +1361,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -1379,13 +1370,13 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105">
@@ -1396,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
@@ -1405,13 +1396,13 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="240">
@@ -1422,7 +1413,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
@@ -1431,13 +1422,13 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="180">
@@ -1448,7 +1439,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -1457,13 +1448,13 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="240">
@@ -1474,7 +1465,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -1483,13 +1474,13 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45">
@@ -1500,7 +1491,7 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
@@ -1509,13 +1500,13 @@
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45">
@@ -1526,7 +1517,7 @@
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -1535,13 +1526,13 @@
         <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="60">
@@ -1552,7 +1543,7 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -1561,13 +1552,13 @@
         <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
@@ -1578,7 +1569,7 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -1587,13 +1578,13 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45">
@@ -1604,7 +1595,7 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
@@ -1613,13 +1604,13 @@
         <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="120">
@@ -1630,7 +1621,7 @@
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -1639,13 +1630,13 @@
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="90">
@@ -1656,7 +1647,7 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -1665,13 +1656,13 @@
         <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="60">
@@ -1682,7 +1673,7 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -1691,13 +1682,13 @@
         <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90">
@@ -1708,7 +1699,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -1717,13 +1708,13 @@
         <v>65</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="105">
@@ -1734,7 +1725,7 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
@@ -1743,13 +1734,13 @@
         <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45">
@@ -1760,7 +1751,7 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
@@ -1769,13 +1760,13 @@
         <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="90">
@@ -1786,19 +1777,19 @@
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>75</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="120">
@@ -1809,19 +1800,19 @@
         <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="105">
@@ -1838,13 +1829,13 @@
         <v>81</v>
       </c>
       <c r="G25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="90">
@@ -1855,19 +1846,19 @@
         <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="180">
@@ -1878,7 +1869,7 @@
         <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
@@ -1887,13 +1878,13 @@
         <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="150">
@@ -1904,7 +1895,7 @@
         <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
@@ -1913,13 +1904,13 @@
         <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I28" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="90">
@@ -1930,7 +1921,7 @@
         <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1939,13 +1930,13 @@
         <v>93</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>94</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105">
@@ -1956,7 +1947,7 @@
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
@@ -1965,13 +1956,13 @@
         <v>96</v>
       </c>
       <c r="G30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30">
@@ -1982,7 +1973,7 @@
         <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1991,13 +1982,13 @@
         <v>98</v>
       </c>
       <c r="G31" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="60">
@@ -2008,7 +1999,7 @@
         <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
@@ -2017,13 +2008,13 @@
         <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>103</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="30">
@@ -2034,7 +2025,7 @@
         <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
@@ -2043,13 +2034,13 @@
         <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>106</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="90">
@@ -2060,7 +2051,7 @@
         <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
@@ -2069,13 +2060,13 @@
         <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>109</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="90">
@@ -2086,7 +2077,7 @@
         <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
@@ -2095,13 +2086,13 @@
         <v>111</v>
       </c>
       <c r="G35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>112</v>
       </c>
       <c r="I35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="60">
@@ -2112,7 +2103,7 @@
         <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -2121,13 +2112,13 @@
         <v>114</v>
       </c>
       <c r="G36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>115</v>
       </c>
       <c r="I36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="60">
@@ -2138,7 +2129,7 @@
         <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -2147,13 +2138,13 @@
         <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>118</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90">
@@ -2164,7 +2155,7 @@
         <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
@@ -2173,13 +2164,13 @@
         <v>121</v>
       </c>
       <c r="G38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I38" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="75">
@@ -2190,7 +2181,7 @@
         <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
@@ -2199,13 +2190,13 @@
         <v>125</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>126</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="60">
@@ -2216,7 +2207,7 @@
         <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
@@ -2225,13 +2216,13 @@
         <v>129</v>
       </c>
       <c r="G40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>130</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="90">
@@ -2242,7 +2233,7 @@
         <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
@@ -2251,13 +2242,13 @@
         <v>133</v>
       </c>
       <c r="G41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>134</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="90">
@@ -2268,7 +2259,7 @@
         <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
@@ -2277,13 +2268,13 @@
         <v>137</v>
       </c>
       <c r="G42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>138</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53E0498-922A-4496-8DAA-CC147F99BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F1DC48-906A-4D45-A35D-05A6F4F8A07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="420" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -1354,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -1363,7 +1363,8 @@
     <col min="3" max="3" width="41.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="155.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="195.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="97.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="67.5">

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F1DC48-906A-4D45-A35D-05A6F4F8A07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEAF33F-2A34-4E64-90DD-1885E0E3CE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="420" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="975" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -649,9 +649,6 @@
     <t>Um apotecário pede que você encontre 3 Orquídeas West Docana para ele. Elas podem ser coletadas no Deserto West Docana.</t>
   </si>
   <si>
-    <t>Marwa implora para que você visite uma caverna próxima e ajude a recuperar seus itens perdidos. Mas tenha cuidado - há Yetis por lá.</t>
-  </si>
-  <si>
     <t>Colete três amostras de Madressilva na floresta ao norte e oeste da cidade.</t>
   </si>
   <si>
@@ -767,9 +764,6 @@
     <t>4#Coletar 3 Orquídeas West Docana.#3#西多喀那兰#</t>
   </si>
   <si>
-    <t>0#Derrote o Yeti.1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞</t>
-  </si>
-  <si>
     <t>0#Econtre Seyah.#1##大沙漠:-1063,-4597:250|大沙漠莎莉雅</t>
   </si>
   <si>
@@ -836,6 +830,12 @@
   </si>
   <si>
     <t>0#Encontrar o mendigo.#1##大沙漠:4267,4329:0|大沙漠乞丐</t>
+  </si>
+  <si>
+    <t>Marwa implora para que você visite uma caverna próxima e a ajude a recuperar seus itens perdidos. Tenha cuidado - existem la dentro Yetis.</t>
+  </si>
+  <si>
+    <t>0#Derrote o Yeti.#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞</t>
   </si>
 </sst>
 </file>
@@ -970,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,6 +1000,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1354,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1417,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5">
@@ -1441,7 +1444,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108">
@@ -1465,7 +1468,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108">
@@ -1489,7 +1492,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5">
@@ -1513,7 +1516,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="67.5">
@@ -1537,7 +1540,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="108">
@@ -1561,7 +1564,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="297">
@@ -1585,7 +1588,7 @@
         <v>32</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="243">
@@ -1609,7 +1612,7 @@
         <v>35</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="270">
@@ -1627,13 +1630,13 @@
         <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40.5">
@@ -1657,7 +1660,7 @@
         <v>41</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="54">
@@ -1681,7 +1684,7 @@
         <v>44</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="54">
@@ -1705,7 +1708,7 @@
         <v>47</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="54">
@@ -1729,7 +1732,7 @@
         <v>50</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="54">
@@ -1753,7 +1756,7 @@
         <v>53</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="108">
@@ -1777,7 +1780,7 @@
         <v>56</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="81">
@@ -1801,7 +1804,7 @@
         <v>59</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="54">
@@ -1825,7 +1828,7 @@
         <v>62</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="108">
@@ -1849,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="121.5">
@@ -1873,7 +1876,7 @@
         <v>68</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="54">
@@ -1897,7 +1900,7 @@
         <v>71</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="94.5">
@@ -1920,7 +1923,7 @@
         <v>74</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="135">
@@ -1943,30 +1946,30 @@
         <v>77</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="108">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="10" t="s">
         <v>80</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>81</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="108">
@@ -1983,13 +1986,13 @@
         <v>83</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="202.5">
@@ -2007,13 +2010,13 @@
         <v>86</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="148.5">
@@ -2031,13 +2034,13 @@
         <v>89</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="108">
@@ -2055,13 +2058,13 @@
         <v>92</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>93</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="108">
@@ -2079,13 +2082,13 @@
         <v>95</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>96</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="27">
@@ -2103,13 +2106,13 @@
         <v>97</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="54">
@@ -2127,13 +2130,13 @@
         <v>101</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27">
@@ -2151,13 +2154,13 @@
         <v>104</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="94.5">
@@ -2175,13 +2178,13 @@
         <v>107</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>108</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="108">
@@ -2199,13 +2202,13 @@
         <v>110</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="67.5">
@@ -2223,13 +2226,13 @@
         <v>113</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="67.5">
@@ -2247,13 +2250,13 @@
         <v>116</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>117</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="94.5">
@@ -2271,13 +2274,13 @@
         <v>120</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="81">
@@ -2295,13 +2298,13 @@
         <v>124</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>125</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="67.5">
@@ -2319,13 +2322,13 @@
         <v>128</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>129</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="108">
@@ -2343,13 +2346,13 @@
         <v>133</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>134</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="94.5">
@@ -2367,13 +2370,13 @@
         <v>137</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_19k_hotfix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEAF33F-2A34-4E64-90DD-1885E0E3CE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DDE5F3-5A99-4B63-9AAD-081C578AE9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="975" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -489,173 +489,195 @@
     <t>0#和三人探险小队前往无尽城探索#1##大沙漠:285,7337:0</t>
   </si>
   <si>
+    <t>0#Derrote o Yeti.#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞</t>
+  </si>
+  <si>
     <t>Adeus, Velho Amigo</t>
   </si>
   <si>
     <t>Saudade</t>
   </si>
   <si>
-    <t>O Lobo da Montanha espera que você possa encontrar Maram no Vale da Lua Gêmea e entregar uma carta para ela.</t>
-  </si>
-  <si>
     <t>O Livro do Aventureiro</t>
   </si>
   <si>
-    <t xml:space="preserve">A filha de Qasim, Rusen, está na Vila Fleur. Ajude a entregar a carta de Qasim para ela.
+    <t>As Rosas Douradas</t>
+  </si>
+  <si>
+    <t>As Exigências de Um Bêbado</t>
+  </si>
+  <si>
+    <t>A Refeição Perfeita</t>
+  </si>
+  <si>
+    <t>Louco por Cogumelos</t>
+  </si>
+  <si>
+    <t>Derrote os Centauros</t>
+  </si>
+  <si>
+    <t>Derrote os Lobos do Ártico</t>
+  </si>
+  <si>
+    <t>Derrote o Bahar</t>
+  </si>
+  <si>
+    <t>Derrote os Aprendizes da Lâmina de Vento</t>
+  </si>
+  <si>
+    <t>Derrote o Garuda</t>
+  </si>
+  <si>
+    <t>Derrote o Ifrit</t>
+  </si>
+  <si>
+    <t>Controle de Pragas</t>
+  </si>
+  <si>
+    <t>Descontente</t>
+  </si>
+  <si>
+    <t>Busca no Deserto</t>
+  </si>
+  <si>
+    <t>Apothecário do Deserto</t>
+  </si>
+  <si>
+    <t>Vila de Calcário</t>
+  </si>
+  <si>
+    <t>Madressilva</t>
+  </si>
+  <si>
+    <t>Checkup</t>
+  </si>
+  <si>
+    <t>Retorno à Vila de Calcário</t>
+  </si>
+  <si>
+    <t>As Montanhas de Karakorum</t>
+  </si>
+  <si>
+    <t>Deixe as Montanhas de Karakorum</t>
+  </si>
+  <si>
+    <t>Sonhos Perdidos</t>
+  </si>
+  <si>
+    <t>0#Encontre Jalal#1##沙盒双月山谷:1804,-973:250|长睚</t>
+  </si>
+  <si>
+    <t>Pacote de Lama</t>
+  </si>
+  <si>
+    <t>Bela Plumagem</t>
+  </si>
+  <si>
+    <t>O Colecionador de Conchas</t>
+  </si>
+  <si>
+    <t>Cidade Sem Fim?</t>
+  </si>
+  <si>
+    <t>Causa e Efeito</t>
+  </si>
+  <si>
+    <t>Bolo de Rosas</t>
+  </si>
+  <si>
+    <t>Exploração Sem Fim</t>
+  </si>
+  <si>
+    <t>Jabbar espera que você possa ajudá-lo a encontrar Jalal e entregar uma carta para ele.</t>
+  </si>
+  <si>
+    <t>O Lobo da Montanha espera que você encontre Maram no Vale da Lua Gêmea e entregue uma carta a ela.</t>
+  </si>
+  <si>
+    <t>A filha de Qasim, Rusen, está em Vilarejo Fleur. Ajude a entregar a carta de Qasim para ela.</t>
+  </si>
+  <si>
+    <t>Tahir pede que você encontre 3 rosas para ele. A lenda diz que essas plantas só florescem em algum lugar no vasto deserto.</t>
+  </si>
+  <si>
+    <t>Um bêbado de Dunestorm pede para você ajudá-lo a encontrar 5 barris de bebida para ele.</t>
+  </si>
+  <si>
+    <t>Golriz pede que você encontre três amostras de Lama da Fonte Termal para ela.</t>
+  </si>
+  <si>
+    <t>Koray pede que você encontre duas amostras de penas para ela. O Forte de Qebui nas Montanhas Zagros deve ter algumas à venda.</t>
+  </si>
+  <si>
+    <t>Amar está procurando uma Concha Padronizada e uma Concha Triangular. A cidade de Agadir, no Vale da Lua Gêmea, deve ter algumas à venda.</t>
+  </si>
+  <si>
+    <t>Rajif está preparando o banquete perfeito e está procurando uma peça de Carne Exquisita, uma de Cordeiro Exquisito e uma de Frango Exquisito.</t>
+  </si>
+  <si>
+    <t>Dariush está preparando o banquete perfeito e está procurando uma peça de cada um dos seguintes cogumelos: Cogumelo Dourado, Cogumelo Penny Bun, Cogumelo Stinkhorn e Cogumelo Tashashu.</t>
+  </si>
+  <si>
+    <t>A Garça da Neve espera que você possa enfrentar 3 grupos de Lobos Árticos.</t>
+  </si>
+  <si>
+    <t>Yaseen espera que você possa enfrentar 3 grupos de Centauros.</t>
+  </si>
+  <si>
+    <t>Ormazd espera que você possa enfrentar 3 esquadrões de Bahar.</t>
+  </si>
+  <si>
+    <t>Kourosh espera que você consiga derrotar 3 esquadrões de Aprendizes de Lâmina do Vento.</t>
+  </si>
+  <si>
+    <t>O Espadachim de Nasir espera que você consiga enfrentar 3 Garudas.</t>
+  </si>
+  <si>
+    <t>Amir espera que você consiga repelir 3 esquadrões de Trabalhadores Ifrit.</t>
+  </si>
+  <si>
+    <t>Sara, da Vila Fleur, espera que você consiga derrotar os Arnab que infestam os campos ao norte do posto avançado.</t>
+  </si>
+  <si>
+    <t>Informe Sara quando os Arnab tiverem ido embora.</t>
+  </si>
+  <si>
+    <t>Latif espera que você investigue o acampamento dos Grunts.</t>
+  </si>
+  <si>
+    <t>Latif espera que você investigue o acampamento dos Grunts. Encontre um pedaço de Carne de Ifrit Grelhada para Maimun. Experimente as lojas de Fleur, Mireton ou Diresprings.</t>
+  </si>
+  <si>
+    <t>Volte para Latif e informe que os Grunts partiram.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanar pede à sua equipe que encontre sua irmã Seyah, que desapareceu no Bazar do Sino do Camelo.
 </t>
   </si>
   <si>
-    <t>As Rosas Douradas</t>
-  </si>
-  <si>
-    <t>Exigência de Bêbado</t>
-  </si>
-  <si>
-    <t>Pacote de Lama</t>
-  </si>
-  <si>
-    <t>Plumagem Corajosa</t>
-  </si>
-  <si>
-    <t>Ele Vê Conchas</t>
-  </si>
-  <si>
-    <t>A Refeição Perfeita</t>
-  </si>
-  <si>
-    <t>Louco por Cogumelos</t>
-  </si>
-  <si>
-    <t>Derrote os Lobos Árticos</t>
-  </si>
-  <si>
-    <t>Derrote os Centauros</t>
-  </si>
-  <si>
-    <t>Derrote os Bahar</t>
-  </si>
-  <si>
-    <t>Derrote os Aprendizes da Lâmina de Vento</t>
-  </si>
-  <si>
-    <t>Derrote o Garuda</t>
-  </si>
-  <si>
-    <t>Derrote os Ifrit</t>
-  </si>
-  <si>
-    <t>Controle de Pragas</t>
-  </si>
-  <si>
-    <t>Descontente</t>
-  </si>
-  <si>
-    <t>Busca no Deserto</t>
-  </si>
-  <si>
-    <t>Boticário do Deserto</t>
-  </si>
-  <si>
-    <t>Aldeia do Calcário</t>
-  </si>
-  <si>
-    <t>Madressilva</t>
-  </si>
-  <si>
-    <t>Checagem de Threnody</t>
-  </si>
-  <si>
-    <t>Retorno à Aldeia do Calcário</t>
-  </si>
-  <si>
-    <t>As Montanhas Karakoram</t>
-  </si>
-  <si>
-    <t>Deixe as Montanhas Karakoram</t>
-  </si>
-  <si>
-    <t>Sonhos Derretidos</t>
-  </si>
-  <si>
-    <t>Cidade Sem Fim?</t>
-  </si>
-  <si>
-    <t>Causa e Efeito</t>
-  </si>
-  <si>
-    <t>Bolo de Rosa</t>
-  </si>
-  <si>
-    <t>Exploração Sem Fim</t>
-  </si>
-  <si>
-    <t>Jabbar pede a você para ajudar a encontrar Jalal e entregar uma carta a ele.</t>
-  </si>
-  <si>
-    <t>Tahir pede a você para encontrar 3 rosas para ele. Diz a lenda que essas plantas só florescem em algum lugar no vasto deserto.</t>
-  </si>
-  <si>
-    <t>Um bêbado de Dunestorm pede a você para ajudá-lo a encontrar 5 tambores de licor.</t>
-  </si>
-  <si>
-    <t>Golriz pede a você para encontrar três amostras de lama de fontes termais para ela.</t>
-  </si>
-  <si>
-    <t>Koray pede a você para encontrar duas amostras de penas para ela. A Fortaleza de Qebui nas Montanhas Zagros deve ter algumas para vender.</t>
-  </si>
-  <si>
-    <t>Amar está procurando uma Concha Padronizada e uma Concha Triangular. A cidade de Agadir no Vale Twinluna deve ter algumas para vender.</t>
-  </si>
-  <si>
-    <t>Rajif está preparando o banquete perfeito e está procurando um pedaço de Carne Bovina Requintada, Cordeiro Requintado e Frango Requintado.</t>
-  </si>
-  <si>
-    <t>Garça da Neve espera que você possa derrotar 3 matilhas de lobos árticos.</t>
-  </si>
-  <si>
-    <t>Yaseen espera que você possa derrotar 3 hordas de centauros.</t>
-  </si>
-  <si>
-    <t>Ormazd espera que você possa derrotar 3 esquadrões de Bahar.</t>
-  </si>
-  <si>
-    <t>Kourosh espera que você possa derrotar 3 esquadrões de Aprendizes da Lâmina de Vento.</t>
-  </si>
-  <si>
-    <t>O Espadachim Nasir espera que você possa derrotar 3 Garudas.</t>
-  </si>
-  <si>
-    <t>Amir espera que você possa derrotar 3 esquadrões de Trabalhadores Ifrit.</t>
-  </si>
-  <si>
-    <t>Sara, da Vila Fleur, espera que você possa derrotar os Arnabs que estão infestados nos campos ao norte do posto avançado.</t>
-  </si>
-  <si>
-    <t>Volte para Sara para dizer a ela que os Arnabs se foram.</t>
-  </si>
-  <si>
-    <t>Latif espera que você possa investigar o acampamento dos Grunts.</t>
-  </si>
-  <si>
-    <t>Encontre para Maimun um pedaço de Carne de Ifrit Selada. Tente nas lojas Fleur e Mireton ou Diresprings.</t>
-  </si>
-  <si>
-    <t>Retorne a Latif e diga a ele que os Grunts se foram.</t>
-  </si>
-  <si>
-    <t>Tanar pede que você encontre Seyah, sua irmã desaparecida, no Bazar Camel Bell.</t>
-  </si>
-  <si>
-    <t>Um apotecário pede que você encontre 3 Orquídeas West Docana para ele. Elas podem ser coletadas no Deserto West Docana.</t>
-  </si>
-  <si>
-    <t>Colete três amostras de Madressilva na floresta ao norte e oeste da cidade.</t>
-  </si>
-  <si>
-    <t>Encontre a entrada da cordilheira Karakorum. Tente procurar perto da ponte quebrada a noroeste da Vila Misty.</t>
-  </si>
-  <si>
-    <t>Deixe as Montanhas Karakorum</t>
+    <t xml:space="preserve">Um Apothecário pede à sua equipe para encontrar 3 orquídeas do deserto de Docana Ocidental. Elas podem ser coletadas no deserto de Docana Ocidental.
+</t>
+  </si>
+  <si>
+    <t>Marwa implora para que você visite uma caverna próxima e a ajude a recuperar seus itens perdidos. Tenha cuidado - existem Yetis la dentro.</t>
+  </si>
+  <si>
+    <t>Leve a Threnody de volta para a Aldeia de Calcário, na extremidade leste da nevasca.</t>
+  </si>
+  <si>
+    <t>Reúna três amostras de Madressilva na floresta ao norte e oeste da cidade.</t>
+  </si>
+  <si>
+    <t>Confira com Threnody agora que ela se recuperou. Parece que ela partiu para o rio a oeste da Vila de Calcário, perto do Vale das Ervas.</t>
+  </si>
+  <si>
+    <t>Algo estranho aconteceu na Vila de Calcário. Chegue lá rapidamente e investigue.</t>
+  </si>
+  <si>
+    <t>Encontre a entrada para a cordilheira de Karakorum. Tente procurar perto da ponte quebrada a noroeste da Vila Nebulosa.</t>
+  </si>
+  <si>
+    <t>Deixe as Montanhas de Karakorum.</t>
   </si>
   <si>
     <t>Onde posso aprender mais sobre Threnody?</t>
@@ -670,172 +692,151 @@
     <t>O técnico não está em casa. Ele deve estar por perto - continue procurando por ele.</t>
   </si>
   <si>
-    <t>Volte com o técnico para sua residência.</t>
-  </si>
-  <si>
-    <t>Despeça-se do técnico e pergunte a Threnody o que ela quer que ele faça.</t>
-  </si>
-  <si>
-    <t>O mendigo te conta sobre um segredo escondido nas ruínas do deserto. Ele sussurra apenas três palavras: Cidade Sem Fim.</t>
-  </si>
-  <si>
-    <t>Procure o mendigo para entender a causa.</t>
-  </si>
-  <si>
-    <t>O velho mendigo espera que você possa trazer a ele um Bolo de Rosa.</t>
-  </si>
-  <si>
-    <t>O mendigo sussurra outra palavra secreta: Tasha.</t>
-  </si>
-  <si>
-    <t>Explore a Cidade Sem Fim com sua equipe de expedição de três pessoas.</t>
-  </si>
-  <si>
-    <t>0#Encontrar Jalal#1##沙盒双月山谷:1804,-973:250|长睚</t>
-  </si>
-  <si>
-    <t>0#Encontrar Maram#1##沙盒双月山谷:1792,-5241:250|双月山谷曼玡</t>
-  </si>
-  <si>
-    <t>0#Encontrar Rusen#1##沙盒黑崖花卉乡:-1163,-1504:250|花卉乡瑞拉</t>
-  </si>
-  <si>
-    <t>4#Colete 3 rosas e dê a Tahir#3#玫瑰花#</t>
-  </si>
-  <si>
-    <t>4#Recupere 5 barris de licor#5#烈酒#</t>
-  </si>
-  <si>
-    <t>4#Recupere 5 pedaços de Lama de Fonte Termal.#5#温泉泥#</t>
-  </si>
-  <si>
-    <t>4#Recupere 2 penas para Koray.#2#羽毛#</t>
-  </si>
-  <si>
-    <t>4#Recupere uma Concha Padronizada para Amar.#1#花纹贝壳#沙盒双月山谷:-2017,-268:100|PLACE:浅溪镇
-4#Recupere uma Concha Triangular para Amar.#1#三褶贝壳#沙盒双月山谷:-2017,-268:100|PLACE:浅溪镇</t>
-  </si>
-  <si>
-    <t>4#Recupere Carne Bovina Requintada para Rajif.#1#精致牛肉#
-4#Recupere Frango Requintado para Rajif.#1#精致鸡肉#
-4#Recupere Cordeiro Requintado para Rajif.#1#精致羊肉#</t>
-  </si>
-  <si>
-    <t>Dariush está preparando o banquete perfeito e está procurando um pedaço de Cogumelo Dourado, Cogumelo de Vaca, Cogumelo Stinkhorn e Cogumelo Tashashu.</t>
-  </si>
-  <si>
-    <t>3#Derrote 5 Aprendizes de Lâmina do Vento.#5#风刃学徒#</t>
-  </si>
-  <si>
-    <t>3#Derrote 3 Garuda.#3#鹰身人#</t>
-  </si>
-  <si>
-    <t>3#Derrote 20 Bahar.#20#骨刺鱼人#</t>
-  </si>
-  <si>
-    <t>3#Derrote 3 rebanhos de Centauros.#3#人马战士#</t>
-  </si>
-  <si>
-    <t>3#Derrote 10 bandos de Lobos Ártico.#10#雪狼#</t>
-  </si>
-  <si>
-    <t>4#Recupere 3 Cogumelos Dourados para Dariush.#3#金针菇#
-4#Recupere 3 Cogumelos de Vaca para Darius.#3#牛肝菌#
-4#Recupere 3 Cogumelos Tashashu para Dariush.#3#茶树菇#
-4#Recupere 3 cogumelos Stinkhorn para Dariush.#3#竹荪#</t>
-  </si>
-  <si>
-    <t>3#Derrote 10 Trabalhadores Ifrit.#10#火魔苦工#
-3#Derrote 10 Escravos Ifrit.#10#火魔奴隶#</t>
-  </si>
-  <si>
-    <t>0#Investigar o acampamento dos Grunts.#1##大雪山:2029,12375:250|能言人语找到咕噜营地</t>
-  </si>
-  <si>
-    <t>0#Econtre Sara.#1</t>
-  </si>
-  <si>
-    <t>0#Derrote Arnab.#1|爱美之心兔犬</t>
-  </si>
-  <si>
-    <t>4#Recuperar Carne de Ifrit Grelhada para Maimun.#1#魔焰火烧牛肉#</t>
-  </si>
-  <si>
-    <t>4#Coletar 3 Orquídeas West Docana.#3#西多喀那兰#</t>
-  </si>
-  <si>
-    <t>0#Econtre Seyah.#1##大沙漠:-1063,-4597:250|大沙漠莎莉雅</t>
-  </si>
-  <si>
-    <t>0#Econtre Latif.#1</t>
-  </si>
-  <si>
-    <t>0#Leve Threnody de volta para a Vila de Calcário.#1##大雪山:11590,2834:0|trigger:青石村村子门口</t>
-  </si>
-  <si>
-    <t>Leve Threnody de volta para a Vila de Calcário, na extremidade leste do banco de neve.</t>
-  </si>
-  <si>
-    <t>Fale com Threnody agora que ela se recuperou. Parece que ela foi para o rio a oeste da Vila de Calcário, perto do Vale das Ervas.</t>
-  </si>
-  <si>
-    <t>Algo estranho aconteceu com a Vila de Calcário. Vá para lá imediatamente e investigue.</t>
-  </si>
-  <si>
-    <t>0#Volte para a Vila de Calcário.#1##大雪山:11450,3573:0|trigger:青石村大妖战斗</t>
-  </si>
-  <si>
-    <t>0#Siga Threnody.#1##大雪山:7221,3048:0|苏醒灰雪2</t>
-  </si>
-  <si>
-    <t>0#Coletar Madressilva A.#1|CHEST:青石村找回药草1
-0#Coletar Madressilva B.#1|CHEST:青石村找回药草2
-0#Coletar Madressilva C.#1|CHEST:青石村找回药草3</t>
-  </si>
-  <si>
-    <t>0#Ir para as Montanhas Karakorum.#1##大雪山:8405,17175:0|trigger:阿拉尔山传送</t>
-  </si>
-  <si>
-    <t>0#Deixar as Montanhas Karakorum.#1</t>
-  </si>
-  <si>
-    <t>0#Encontre Threnody#1</t>
-  </si>
-  <si>
-    <t>0#Cabana do Caçador.#1</t>
-  </si>
-  <si>
-    <t>0#Encontrar o Técnico.#1|trigger:选择灰雪北边河谷去东侧找机械师</t>
-  </si>
-  <si>
-    <t>0#Encontrar o Técnico.#1|trigger:选择灰雪北边河谷北边机械师战斗触发</t>
-  </si>
-  <si>
-    <t>0#Retornar à casa do Técnico.#1|北边河谷等待灰雪</t>
-  </si>
-  <si>
-    <t>0#Despedir-se do Técnico.#1</t>
-  </si>
-  <si>
-    <t>0#Investigar as ruínas no deserto.#1##大沙漠:638,7259:250</t>
-  </si>
-  <si>
-    <t>0#Retorne às ruínas no deserto e encontre Tasha.#1##大沙漠:638,7259:250</t>
-  </si>
-  <si>
-    <t>0#Explore a Cidade Sem Fim.#1##大沙漠:285,7337:0</t>
-  </si>
-  <si>
-    <t>4#Dar um Bolo de Rosa para o mendigo.#1#玫瑰花饼#</t>
-  </si>
-  <si>
-    <t>0#Encontrar o mendigo.#1##大沙漠:4267,4329:0|大沙漠乞丐</t>
-  </si>
-  <si>
-    <t>Marwa implora para que você visite uma caverna próxima e a ajude a recuperar seus itens perdidos. Tenha cuidado - existem la dentro Yetis.</t>
-  </si>
-  <si>
-    <t>0#Derrote o Yeti.#1##大雪山:1971,1332:0|CHEST:灰雪雪怪山洞</t>
+    <t>Volte com o técnico para a residência dele.</t>
+  </si>
+  <si>
+    <t>Dê adeus ao técnico e pergunte a Threnody o que ela quer que ele faça.</t>
+  </si>
+  <si>
+    <t>O mendigo conta a você sobre um segredo escondido nas ruínas do deserto. Ele sussurra apenas três palavras: C i d a d e  S e m  F i m.</t>
+  </si>
+  <si>
+    <t>Procure pelo mendigo para entender a razão.</t>
+  </si>
+  <si>
+    <t>O velho mendigo espera que você possa trazer a ele um Bolo de Rosas.</t>
+  </si>
+  <si>
+    <t>O mendigo sussurra outra palavra secreta: T a s h a.</t>
+  </si>
+  <si>
+    <t>Explore a Cidade Sem Fim com a sua equipe de expedição composta por três pessoas.</t>
+  </si>
+  <si>
+    <t>0#Encontre Maram#1##沙盒双月山谷:1792,-5241:250|双月山谷曼玡</t>
+  </si>
+  <si>
+    <t>0#Encontre Rusen#1##沙盒黑崖花卉乡:-1163,-1504:250|花卉乡瑞拉</t>
+  </si>
+  <si>
+    <t>4#Colher 3 Rosas e entregá-las a Tahir#3#玫瑰花#</t>
+  </si>
+  <si>
+    <t>4#Recuperar 5 barris de licor#5#烈酒#</t>
+  </si>
+  <si>
+    <t>4#Recuperar 5 pedaços de Lama de Fonte Termal#5#温泉泥#</t>
+  </si>
+  <si>
+    <t>4#Recuperar 2 penas para Koray#2#羽毛#</t>
+  </si>
+  <si>
+    <t>4#Recuperar uma Concha Padronizada para Amar#1#花纹贝壳#沙盒双月山谷:-2017,-268:100|PLACE:浅溪镇
+4#Recuperar uma Concha Triangular para Amar#1#三褶贝壳#沙盒双月山谷:-2017,-268:100|PLACE:浅溪镇</t>
+  </si>
+  <si>
+    <t>4#Recuperar Carne Exquisita para Rajif#1#精致牛肉#
+4#Recuperar Frango Exquisito para Rajif#1#精致鸡肉#
+4#Recuperar Cordeiro Exquisito para Rajif#1#精致羊肉#</t>
+  </si>
+  <si>
+    <t>4#Recuperar 3 Cogumelos Dourados para Dariush#3#金针菇#
+4#Recuperar 3 Pães para Dariush#3#牛肝菌#
+4#Recuperar 3 Cogumelos Tashashu para Dariush#3#茶树菇#
+4#Recuperar 3 Cogumelos Stinkhorns para Dariush#3#竹荪#</t>
+  </si>
+  <si>
+    <t>3#Derrote 10 grupos de Lobos Árticos#10#雪狼#</t>
+  </si>
+  <si>
+    <t>3#Derrote 3 rebanhos de Centauros#3#人马战士#</t>
+  </si>
+  <si>
+    <t>3#Derrote 20 Bahar#20#骨刺鱼人#</t>
+  </si>
+  <si>
+    <t>3#Derrote 5 Aprendizes de Lâmina de Vento#5#风刃学徒#</t>
+  </si>
+  <si>
+    <t>3#Derrote 3 Garuda#3#鹰身人#</t>
+  </si>
+  <si>
+    <t>3#Derrote 10 Trabalhadores Ifrit#10#火魔苦工#
+3#Derrote 10 Escravos Ifrit#10#火魔奴隶#</t>
+  </si>
+  <si>
+    <t>0#Derrote Arnab#1|爱美之心兔犬</t>
+  </si>
+  <si>
+    <t>0#Encontre Sara#1</t>
+  </si>
+  <si>
+    <t>0#Investigar o acampamento dos Grunts#1##大雪山:2029,12375:250|能言人语找到咕噜营地</t>
+  </si>
+  <si>
+    <t>4#Recuperar Bife Grelhado Ifrit para Maimun#1#魔焰火烧牛肉#</t>
+  </si>
+  <si>
+    <t>0#Encontrar Latif#1</t>
+  </si>
+  <si>
+    <t>0#Encontrar Seyah#1##大沙漠:-1063,-4597:250|大沙漠莎莉雅</t>
+  </si>
+  <si>
+    <t>4#Coletar 3 Orquídeas da Docana Ocidental#3#西多喀那兰#</t>
+  </si>
+  <si>
+    <t>0#Levar Threnody de volta para a Vila de Calcário#1##大雪山:11590,2834:0|trigger:青石村村子门口</t>
+  </si>
+  <si>
+    <t>0#Coletar Madressilva A#1|CHEST:青石村找回药草1
+0#Coletar Madressilva B#1|CHEST:青石村找回药草2
+0#Coletar Madressilva C#1|CHEST:青石村找回药草3</t>
+  </si>
+  <si>
+    <t>0#Seguir Threnody#1##大雪山:7221,3048:0|苏醒灰雪2</t>
+  </si>
+  <si>
+    <t>0#Voltar para a Vila de Calcário#1##大雪山:11450,3573:0|trigger:青石村大妖战斗</t>
+  </si>
+  <si>
+    <t>0#Ir para as Montanhas Karakorum#1##大雪山:8405,17175:0|trigger:阿拉尔山传送</t>
+  </si>
+  <si>
+    <t>0#Deixar as Montanhas Karakorum#1</t>
+  </si>
+  <si>
+    <t>0#Encontrar Threnody#1</t>
+  </si>
+  <si>
+    <t>0#Cabana do Caçador#1</t>
+  </si>
+  <si>
+    <t>0#Encontrar o Técnico#1|trigger:选择灰雪北边河谷去东侧找机械师</t>
+  </si>
+  <si>
+    <t>0#Encontrar o Técnico#1|trigger:选择灰雪北边河谷北边机械师战斗触发</t>
+  </si>
+  <si>
+    <t>0#Retornar à casa do Técnico#1|北边河谷等待灰雪</t>
+  </si>
+  <si>
+    <t>0#Despedir-se do Técnico#1</t>
+  </si>
+  <si>
+    <t>0#Investigar as ruínas no deserto#1##大沙漠:638,7259:250</t>
+  </si>
+  <si>
+    <t>0#Encontrar o mendigo#1##大沙漠:4267,4329:0|大沙漠乞丐</t>
+  </si>
+  <si>
+    <t>0#Retornar às ruínas no deserto e encontrar Tasha#1##大沙漠:638,7259:250</t>
+  </si>
+  <si>
+    <t>4#Dar um Bolo de Rosas para o mendigo#1#玫瑰花饼#</t>
+  </si>
+  <si>
+    <t>0#Explorar a Cidade Sem Fim#1##大沙漠:285,7337:0</t>
   </si>
 </sst>
 </file>
@@ -970,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,9 +1001,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1357,17 +1355,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="41.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="155.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="97.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="190.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="195.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="67.5">
@@ -1407,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -1420,7 +1418,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="94.5">
@@ -1431,20 +1429,20 @@
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="108">
@@ -1461,14 +1459,14 @@
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>143</v>
+      <c r="G4" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108">
@@ -1479,20 +1477,20 @@
         <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="67.5">
@@ -1503,20 +1501,20 @@
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="67.5">
@@ -1527,20 +1525,20 @@
         <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="108">
@@ -1551,20 +1549,20 @@
         <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D8" s="4"/>
       <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="297">
@@ -1575,20 +1573,20 @@
         <v>30</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="243">
@@ -1599,20 +1597,20 @@
         <v>33</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="270">
@@ -1623,14 +1621,14 @@
         <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>38</v>
@@ -1647,20 +1645,20 @@
         <v>39</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D12" s="4"/>
       <c r="F12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="54">
@@ -1671,20 +1669,20 @@
         <v>42</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D13" s="4"/>
       <c r="F13" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="54">
@@ -1695,20 +1693,20 @@
         <v>45</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D14" s="4"/>
       <c r="F14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="54">
@@ -1719,20 +1717,20 @@
         <v>48</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="54">
@@ -1743,20 +1741,20 @@
         <v>51</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D16" s="4"/>
       <c r="F16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>53</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="108">
@@ -1767,20 +1765,20 @@
         <v>54</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="81">
@@ -1791,20 +1789,20 @@
         <v>57</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D18" s="4"/>
       <c r="F18" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="54">
@@ -1815,20 +1813,20 @@
         <v>57</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>62</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="108">
@@ -1839,20 +1837,20 @@
         <v>63</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="121.5">
@@ -1863,20 +1861,20 @@
         <v>63</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="54">
@@ -1887,20 +1885,20 @@
         <v>63</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D22" s="2"/>
       <c r="F22" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="94.5">
@@ -1911,19 +1909,19 @@
         <v>72</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>190</v>
+      <c r="G23" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>74</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="135">
@@ -1934,42 +1932,42 @@
         <v>75</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>191</v>
+      <c r="G24" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="108">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="H25" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>81</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>251</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="108">
@@ -1980,19 +1978,19 @@
         <v>82</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>231</v>
+      <c r="G26" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="202.5">
@@ -2003,14 +2001,14 @@
         <v>85</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D27" s="1"/>
       <c r="F27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>87</v>
@@ -2027,20 +2025,20 @@
         <v>88</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>90</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="108">
@@ -2051,20 +2049,20 @@
         <v>91</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>93</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="108">
@@ -2075,20 +2073,20 @@
         <v>94</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D30" s="1"/>
       <c r="F30" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>96</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="27">
@@ -2099,20 +2097,20 @@
         <v>97</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D31" s="1"/>
       <c r="F31" s="1" t="s">
         <v>97</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>98</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="54">
@@ -2123,20 +2121,20 @@
         <v>100</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D32" s="1"/>
       <c r="F32" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>102</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27">
@@ -2147,20 +2145,20 @@
         <v>100</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D33" s="1"/>
       <c r="F33" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="94.5">
@@ -2171,20 +2169,20 @@
         <v>100</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D34" s="1"/>
       <c r="F34" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>108</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="108">
@@ -2195,20 +2193,20 @@
         <v>100</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D35" s="1"/>
       <c r="F35" s="1" t="s">
         <v>110</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="67.5">
@@ -2219,20 +2217,20 @@
         <v>100</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>113</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="67.5">
@@ -2243,20 +2241,20 @@
         <v>100</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D37" s="1"/>
       <c r="F37" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>117</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="94.5">
@@ -2274,13 +2272,13 @@
         <v>120</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="81">
@@ -2298,13 +2296,13 @@
         <v>124</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>125</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="67.5">
@@ -2322,13 +2320,13 @@
         <v>128</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>129</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="108">
@@ -2346,13 +2344,13 @@
         <v>133</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>134</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="94.5">
@@ -2370,18 +2368,17 @@
         <v>137</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>